--- a/seanox_ai_nlp/units/units.xlsx
+++ b/seanox_ai_nlp/units/units.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
@@ -49,35 +49,18 @@
     <t xml:space="preserve">Common Units</t>
   </si>
   <si>
+    <t xml:space="preserve">Informal Phrase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal Exponents</t>
+  </si>
+  <si>
     <t xml:space="preserve">Informal</t>
   </si>
   <si>
-    <t xml:space="preserve">Informal Prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Informal</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Exponents</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">(Arc) Minute</t>
   </si>
   <si>
@@ -553,6 +536,18 @@
   </si>
   <si>
     <t xml:space="preserve">sq.yd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq. ft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq. in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq. mile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq. yd.</t>
   </si>
   <si>
     <t xml:space="preserve">sq ft</t>
@@ -688,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +730,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF080808"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF080808"/>
       <name val="Arial"/>
@@ -749,7 +737,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,7 +747,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB7B3CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -801,13 +789,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B3CA"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFB7B3CA"/>
+        <fgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDEDCE6"/>
       </patternFill>
     </fill>
     <fill>
@@ -866,81 +860,77 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -952,39 +942,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF080808"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1006,11 +963,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FFEBECF0"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1020,7 +977,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEBECF0"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FFAFD095"/>
@@ -1228,14 +1185,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD124"/>
+  <dimension ref="A1:XFD128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1249,7 +1206,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.91"/>
@@ -1258,52 +1215,57 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="18.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16377" min="23" style="3" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="24" style="1" width="10.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="4" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(N3:N108)) &gt; 0,LEFT(_xlfn.CONCAT(N3:N108),LEN(_xlfn.CONCAT(N3:N108)) -1),"")</f>
+      <c r="N1" s="3" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(N3:N112)) &gt; 0,LEFT(_xlfn.CONCAT(N3:N112),LEN(_xlfn.CONCAT(N3:N112)) -1),"")</f>
         <v>A|cd|g|K|m|mol|s</v>
       </c>
-      <c r="O1" s="5" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(O3:O108)) &gt; 0,LEFT(_xlfn.CONCAT(O3:O108),LEN(_xlfn.CONCAT(O3:O108)) -1),"")</f>
+      <c r="O1" s="4" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(O3:O112)) &gt; 0,LEFT(_xlfn.CONCAT(O3:O112),LEN(_xlfn.CONCAT(O3:O112)) -1),"")</f>
         <v>Bq|C|F|Gy|H|Hz|J|kat|lm|lx|N|ºC|Pa|rad|S|sr|Sv|T|V|W|Wb|Ω</v>
       </c>
-      <c r="P1" s="6" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(P3:P108)) &gt; 0,LEFT(_xlfn.CONCAT(P3:P108),LEN(_xlfn.CONCAT(P3:P108)) -1),"")</f>
+      <c r="P1" s="5" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(P3:P112)) &gt; 0,LEFT(_xlfn.CONCAT(P3:P112),LEN(_xlfn.CONCAT(P3:P112)) -1),"")</f>
         <v>a|AE|Ah|AU|b|B|bar|ct|d|Da|dB|db(A)|db(C)|db(G)|db(Z)|dpt|eV|h|ha|kn|kt|l|L|mel|min|Np|oz. tr.|PS|pt|sone|tex|VA|Wh</v>
       </c>
-      <c r="Q1" s="7" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(Q3:Q108)) &gt; 0,LEFT(_xlfn.CONCAT(Q3:Q108),LEN(_xlfn.CONCAT(Q3:Q108)) -1),"")</f>
+      <c r="Q1" s="6" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(Q3:Q112)) &gt; 0,LEFT(_xlfn.CONCAT(Q3:Q112),LEN(_xlfn.CONCAT(Q3:Q112)) -1),"")</f>
         <v>A|a|AE|Ah|AU|b|B|bar|Bq|C|cd|ct|d|Da|dB|db(A)|db(C)|db(G)|db(Z)|dpt|eV|F|g|Gy|H|h|ha|Hz|J|K|kat|kn|kt|l|L|lm|lx|m|mel|min|mol|N|Np|ºC|oz. tr.|Pa|PS|pt|rad|s|S|sone|sr|Sv|T|tex|V|VA|W|Wb|Wh|Ω</v>
       </c>
-      <c r="R1" s="8" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(R3:R108)) &gt; 0,LEFT(_xlfn.CONCAT(R3:R108),LEN(_xlfn.CONCAT(R3:R108)) -1),"")</f>
+      <c r="R1" s="7" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(R3:R112)) &gt; 0,LEFT(_xlfn.CONCAT(R3:R112),LEN(_xlfn.CONCAT(R3:R112)) -1),"")</f>
         <v>A|AE|AU|b|B|Bq|C|cd|ct|Da|eV|F|g|Gy|H|h|Hz|J|K|kat|lm|lx|m|mol|N|ºC|oz. tr.|Pa|pt|s|S|sr|Sv|T|V|W|Wb|Ω</v>
       </c>
-      <c r="S1" s="9" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(S3:S108)) &gt; 0,LEFT(_xlfn.CONCAT(S3:S108),LEN(_xlfn.CONCAT(S3:S108)) -1),"")</f>
+      <c r="S1" s="8" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(S3:S112)) &gt; 0,LEFT(_xlfn.CONCAT(S3:S112),LEN(_xlfn.CONCAT(S3:S112)) -1),"")</f>
         <v>A|Bq|C|cd|F|Gy|H|Hz|J|K|kat|lm|lx|m|mol|Pa|s|S|sr|Sv|T|V|W|Wb|Ω</v>
       </c>
-      <c r="T1" s="10" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(T3:T108)) &gt; 0,LEFT(_xlfn.CONCAT(T3:T108),LEN(_xlfn.CONCAT(T3:T108)) -1),"")</f>
-        <v>sq.ft.|sq.in.|sq.mile|sq.yd.|sq ft|sq in|sq mile|sq yd</v>
-      </c>
-      <c r="U1" s="11" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(U3:U108)) &gt; 0,LEFT(_xlfn.CONCAT(U3:U108),LEN(_xlfn.CONCAT(U3:U108)) -1),"")</f>
+      <c r="T1" s="9" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(T3:T112)) &gt; 0,LEFT(_xlfn.CONCAT(T3:T112),LEN(_xlfn.CONCAT(T3:T112)) -1),"")</f>
+        <v>′|″|″|a|a|a|Ah|atm|Atü|bar|bbl|d|dam|dB|db(A)|db(C)|db(G)|db(Z)|dpt|dz|Dz|ft|gal|ha|hl|hp|in|kn|kt|kt|l|L|lb|lj|ls|mel|mi|min|Np|º|oz|oz.|p|pc|PS|rad|rm|sone|sq.ft.|sq.in.|sq.mile|sq.yd.|sq. ft.|sq. in.|sq. mile|sq. yd.|sq ft|sq in|sq mile|sq yd|St|t|tex|u|v|VA|Var|Wh|yd|Z|ρ|ω</v>
+      </c>
+      <c r="U1" s="10" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(U3:U112)) &gt; 0,LEFT(_xlfn.CONCAT(U3:U112),LEN(_xlfn.CONCAT(U3:U112)) -1),"")</f>
+        <v>sq.ft.|sq.in.|sq.mile|sq.yd.|sq. ft.|sq. in.|sq. mile|sq. yd.|sq ft|sq in|sq mile|sq yd</v>
+      </c>
+      <c r="V1" s="11" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(V3:V112)) &gt; 0,LEFT(_xlfn.CONCAT(V3:V112),LEN(_xlfn.CONCAT(V3:V112)) -1),"")</f>
         <v>a|ha|m|mi</v>
       </c>
-      <c r="V1" s="12" t="str">
-        <f aca="false">IF(LEN(_xlfn.CONCAT(V3:V108)) &gt; 0,LEFT(_xlfn.CONCAT(V3:V108),LEN(_xlfn.CONCAT(V3:V108)) -1),"")</f>
+      <c r="W1" s="12" t="str">
+        <f aca="false">IF(LEN(_xlfn.CONCAT(W3:W112)) &gt; 0,LEFT(_xlfn.CONCAT(W3:W112),LEN(_xlfn.CONCAT(W3:W112)) -1),"")</f>
         <v>a|ha|m|mi</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1299,7 @@
       <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1359,28 +1321,30 @@
         <v>7</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="XEX2" s="0"/>
       <c r="XEY2" s="0"/>
       <c r="XEZ2" s="0"/>
-      <c r="XFA2" s="0"/>
-      <c r="XFB2" s="0"/>
-      <c r="XFC2" s="0"/>
-      <c r="XFD2" s="0"/>
+      <c r="XFA2" s="15"/>
+      <c r="XFB2" s="15"/>
+      <c r="XFC2" s="15"/>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1420,24 +1384,28 @@
         <v/>
       </c>
       <c r="T3" s="1" t="str">
+        <f aca="false">IF(I3&lt;&gt;"",$B3&amp;"|","")</f>
+        <v>′|</v>
+      </c>
+      <c r="U3" s="1" t="str">
         <f aca="false">IF(J3&lt;&gt;"",$B3&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U3" s="1" t="str">
+      <c r="V3" s="1" t="str">
         <f aca="false">IF(K3&lt;&gt;"",$B3&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V3" s="1" t="str">
+      <c r="W3" s="1" t="str">
         <f aca="false">IF(L3&lt;&gt;"",$B3&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1477,24 +1445,28 @@
         <v/>
       </c>
       <c r="T4" s="1" t="str">
+        <f aca="false">IF(I4&lt;&gt;"",$B4&amp;"|","")</f>
+        <v>″|</v>
+      </c>
+      <c r="U4" s="1" t="str">
         <f aca="false">IF(J4&lt;&gt;"",$B4&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U4" s="1" t="str">
+      <c r="V4" s="1" t="str">
         <f aca="false">IF(K4&lt;&gt;"",$B4&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V4" s="1" t="str">
+      <c r="W4" s="1" t="str">
         <f aca="false">IF(L4&lt;&gt;"",$B4&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1534,24 +1506,28 @@
         <v/>
       </c>
       <c r="T5" s="1" t="str">
+        <f aca="false">IF(I5&lt;&gt;"",$B5&amp;"|","")</f>
+        <v>″|</v>
+      </c>
+      <c r="U5" s="1" t="str">
         <f aca="false">IF(J5&lt;&gt;"",$B5&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="V5" s="1" t="str">
         <f aca="false">IF(K5&lt;&gt;"",$B5&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="W5" s="1" t="str">
         <f aca="false">IF(L5&lt;&gt;"",$B5&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1591,38 +1567,42 @@
         <v/>
       </c>
       <c r="T6" s="1" t="str">
+        <f aca="false">IF(I6&lt;&gt;"",$B6&amp;"|","")</f>
+        <v>a|</v>
+      </c>
+      <c r="U6" s="1" t="str">
         <f aca="false">IF(J6&lt;&gt;"",$B6&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="V6" s="1" t="str">
         <f aca="false">IF(K6&lt;&gt;"",$B6&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="W6" s="1" t="str">
         <f aca="false">IF(L6&lt;&gt;"",$B6&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="16" t="str">
         <f aca="false">IF(G7="","x","")</f>
@@ -1656,32 +1636,36 @@
         <v>A|</v>
       </c>
       <c r="T7" s="1" t="str">
+        <f aca="false">IF(I7&lt;&gt;"",$B7&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U7" s="1" t="str">
         <f aca="false">IF(J7&lt;&gt;"",$B7&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U7" s="1" t="str">
+      <c r="V7" s="1" t="str">
         <f aca="false">IF(K7&lt;&gt;"",$B7&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V7" s="1" t="str">
+      <c r="W7" s="1" t="str">
         <f aca="false">IF(L7&lt;&gt;"",$B7&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1691,10 +1675,10 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1" t="str">
         <f aca="false">IF(C8&lt;&gt;"",$B8&amp;"|","")</f>
@@ -1721,24 +1705,28 @@
         <v/>
       </c>
       <c r="T8" s="1" t="str">
+        <f aca="false">IF(I8&lt;&gt;"",$B8&amp;"|","")</f>
+        <v>a|</v>
+      </c>
+      <c r="U8" s="1" t="str">
         <f aca="false">IF(J8&lt;&gt;"",$B8&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U8" s="1" t="str">
+      <c r="V8" s="1" t="str">
         <f aca="false">IF(K8&lt;&gt;"",$B8&amp;"|","")</f>
         <v>a|</v>
       </c>
-      <c r="V8" s="1" t="str">
+      <c r="W8" s="1" t="str">
         <f aca="false">IF(L8&lt;&gt;"",$B8&amp;"|","")</f>
         <v>a|</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1778,35 +1766,39 @@
         <v/>
       </c>
       <c r="T9" s="1" t="str">
+        <f aca="false">IF(I9&lt;&gt;"",$B9&amp;"|","")</f>
+        <v>a|</v>
+      </c>
+      <c r="U9" s="1" t="str">
         <f aca="false">IF(J9&lt;&gt;"",$B9&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U9" s="1" t="str">
+      <c r="V9" s="1" t="str">
         <f aca="false">IF(K9&lt;&gt;"",$B9&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V9" s="1" t="str">
+      <c r="W9" s="1" t="str">
         <f aca="false">IF(L9&lt;&gt;"",$B9&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="str">
@@ -1841,30 +1833,34 @@
         <v/>
       </c>
       <c r="T10" s="1" t="str">
+        <f aca="false">IF(I10&lt;&gt;"",$B10&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U10" s="1" t="str">
         <f aca="false">IF(J10&lt;&gt;"",$B10&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="V10" s="1" t="str">
         <f aca="false">IF(K10&lt;&gt;"",$B10&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="W10" s="1" t="str">
         <f aca="false">IF(L10&lt;&gt;"",$B10&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="16"/>
       <c r="I11" s="16" t="str">
@@ -1896,24 +1892,28 @@
         <v/>
       </c>
       <c r="T11" s="1" t="str">
+        <f aca="false">IF(I11&lt;&gt;"",$B11&amp;"|","")</f>
+        <v>Ah|</v>
+      </c>
+      <c r="U11" s="1" t="str">
         <f aca="false">IF(J11&lt;&gt;"",$B11&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U11" s="1" t="str">
+      <c r="V11" s="1" t="str">
         <f aca="false">IF(K11&lt;&gt;"",$B11&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V11" s="1" t="str">
+      <c r="W11" s="1" t="str">
         <f aca="false">IF(L11&lt;&gt;"",$B11&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1953,24 +1953,28 @@
         <v/>
       </c>
       <c r="T12" s="1" t="str">
+        <f aca="false">IF(I12&lt;&gt;"",$B12&amp;"|","")</f>
+        <v>atm|</v>
+      </c>
+      <c r="U12" s="1" t="str">
         <f aca="false">IF(J12&lt;&gt;"",$B12&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U12" s="1" t="str">
+      <c r="V12" s="1" t="str">
         <f aca="false">IF(K12&lt;&gt;"",$B12&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V12" s="1" t="str">
+      <c r="W12" s="1" t="str">
         <f aca="false">IF(L12&lt;&gt;"",$B12&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -2010,35 +2014,39 @@
         <v/>
       </c>
       <c r="T13" s="1" t="str">
+        <f aca="false">IF(I13&lt;&gt;"",$B13&amp;"|","")</f>
+        <v>Atü|</v>
+      </c>
+      <c r="U13" s="1" t="str">
         <f aca="false">IF(J13&lt;&gt;"",$B13&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="V13" s="1" t="str">
         <f aca="false">IF(K13&lt;&gt;"",$B13&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V13" s="1" t="str">
+      <c r="W13" s="1" t="str">
         <f aca="false">IF(L13&lt;&gt;"",$B13&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="str">
@@ -2073,35 +2081,39 @@
         <v/>
       </c>
       <c r="T14" s="1" t="str">
+        <f aca="false">IF(I14&lt;&gt;"",$B14&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U14" s="1" t="str">
         <f aca="false">IF(J14&lt;&gt;"",$B14&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U14" s="1" t="str">
+      <c r="V14" s="1" t="str">
         <f aca="false">IF(K14&lt;&gt;"",$B14&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V14" s="1" t="str">
+      <c r="W14" s="1" t="str">
         <f aca="false">IF(L14&lt;&gt;"",$B14&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="str">
@@ -2136,35 +2148,39 @@
         <v/>
       </c>
       <c r="T15" s="1" t="str">
+        <f aca="false">IF(I15&lt;&gt;"",$B15&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U15" s="1" t="str">
         <f aca="false">IF(J15&lt;&gt;"",$B15&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U15" s="1" t="str">
+      <c r="V15" s="1" t="str">
         <f aca="false">IF(K15&lt;&gt;"",$B15&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V15" s="1" t="str">
+      <c r="W15" s="1" t="str">
         <f aca="false">IF(L15&lt;&gt;"",$B15&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="str">
@@ -2199,32 +2215,36 @@
         <v/>
       </c>
       <c r="T16" s="1" t="str">
+        <f aca="false">IF(I16&lt;&gt;"",$B16&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U16" s="1" t="str">
         <f aca="false">IF(J16&lt;&gt;"",$B16&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U16" s="1" t="str">
+      <c r="V16" s="1" t="str">
         <f aca="false">IF(K16&lt;&gt;"",$B16&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V16" s="1" t="str">
+      <c r="W16" s="1" t="str">
         <f aca="false">IF(L16&lt;&gt;"",$B16&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2260,24 +2280,28 @@
         <v/>
       </c>
       <c r="T17" s="1" t="str">
+        <f aca="false">IF(I17&lt;&gt;"",$B17&amp;"|","")</f>
+        <v>bar|</v>
+      </c>
+      <c r="U17" s="1" t="str">
         <f aca="false">IF(J17&lt;&gt;"",$B17&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U17" s="1" t="str">
+      <c r="V17" s="1" t="str">
         <f aca="false">IF(K17&lt;&gt;"",$B17&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V17" s="1" t="str">
+      <c r="W17" s="1" t="str">
         <f aca="false">IF(L17&lt;&gt;"",$B17&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -2317,38 +2341,42 @@
         <v/>
       </c>
       <c r="T18" s="1" t="str">
+        <f aca="false">IF(I18&lt;&gt;"",$B18&amp;"|","")</f>
+        <v>bbl|</v>
+      </c>
+      <c r="U18" s="1" t="str">
         <f aca="false">IF(J18&lt;&gt;"",$B18&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U18" s="1" t="str">
+      <c r="V18" s="1" t="str">
         <f aca="false">IF(K18&lt;&gt;"",$B18&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V18" s="1" t="str">
+      <c r="W18" s="1" t="str">
         <f aca="false">IF(L18&lt;&gt;"",$B18&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="16" t="str">
         <f aca="false">IF(G19="","x","")</f>
@@ -2382,38 +2410,42 @@
         <v>Bq|</v>
       </c>
       <c r="T19" s="1" t="str">
+        <f aca="false">IF(I19&lt;&gt;"",$B19&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U19" s="1" t="str">
         <f aca="false">IF(J19&lt;&gt;"",$B19&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U19" s="1" t="str">
+      <c r="V19" s="1" t="str">
         <f aca="false">IF(K19&lt;&gt;"",$B19&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V19" s="1" t="str">
+      <c r="W19" s="1" t="str">
         <f aca="false">IF(L19&lt;&gt;"",$B19&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" s="16" t="str">
         <f aca="false">IF(G20="","x","")</f>
@@ -2447,38 +2479,42 @@
         <v>C|</v>
       </c>
       <c r="T20" s="1" t="str">
+        <f aca="false">IF(I20&lt;&gt;"",$B20&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U20" s="1" t="str">
         <f aca="false">IF(J20&lt;&gt;"",$B20&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U20" s="1" t="str">
+      <c r="V20" s="1" t="str">
         <f aca="false">IF(K20&lt;&gt;"",$B20&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V20" s="1" t="str">
+      <c r="W20" s="1" t="str">
         <f aca="false">IF(L20&lt;&gt;"",$B20&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="16" t="str">
         <f aca="false">IF(G21="","x","")</f>
@@ -2512,35 +2548,39 @@
         <v>cd|</v>
       </c>
       <c r="T21" s="1" t="str">
+        <f aca="false">IF(I21&lt;&gt;"",$B21&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U21" s="1" t="str">
         <f aca="false">IF(J21&lt;&gt;"",$B21&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U21" s="1" t="str">
+      <c r="V21" s="1" t="str">
         <f aca="false">IF(K21&lt;&gt;"",$B21&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V21" s="1" t="str">
+      <c r="W21" s="1" t="str">
         <f aca="false">IF(L21&lt;&gt;"",$B21&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="str">
@@ -2575,32 +2615,36 @@
         <v/>
       </c>
       <c r="T22" s="1" t="str">
+        <f aca="false">IF(I22&lt;&gt;"",$B22&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U22" s="1" t="str">
         <f aca="false">IF(J22&lt;&gt;"",$B22&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U22" s="1" t="str">
+      <c r="V22" s="1" t="str">
         <f aca="false">IF(K22&lt;&gt;"",$B22&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V22" s="1" t="str">
+      <c r="W22" s="1" t="str">
         <f aca="false">IF(L22&lt;&gt;"",$B22&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2636,33 +2680,37 @@
         <v/>
       </c>
       <c r="T23" s="1" t="str">
+        <f aca="false">IF(I23&lt;&gt;"",$B23&amp;"|","")</f>
+        <v>d|</v>
+      </c>
+      <c r="U23" s="1" t="str">
         <f aca="false">IF(J23&lt;&gt;"",$B23&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U23" s="1" t="str">
+      <c r="V23" s="1" t="str">
         <f aca="false">IF(K23&lt;&gt;"",$B23&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V23" s="1" t="str">
+      <c r="W23" s="1" t="str">
         <f aca="false">IF(L23&lt;&gt;"",$B23&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="16" t="str">
         <f aca="false">IF(G24="","x","")</f>
@@ -2693,24 +2741,28 @@
         <v/>
       </c>
       <c r="T24" s="1" t="str">
+        <f aca="false">IF(I24&lt;&gt;"",$B24&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U24" s="1" t="str">
         <f aca="false">IF(J24&lt;&gt;"",$B24&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U24" s="1" t="str">
+      <c r="V24" s="1" t="str">
         <f aca="false">IF(K24&lt;&gt;"",$B24&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V24" s="1" t="str">
+      <c r="W24" s="1" t="str">
         <f aca="false">IF(L24&lt;&gt;"",$B24&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -2750,32 +2802,36 @@
         <v/>
       </c>
       <c r="T25" s="1" t="str">
+        <f aca="false">IF(I25&lt;&gt;"",$B25&amp;"|","")</f>
+        <v>dam|</v>
+      </c>
+      <c r="U25" s="1" t="str">
         <f aca="false">IF(J25&lt;&gt;"",$B25&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U25" s="1" t="str">
+      <c r="V25" s="1" t="str">
         <f aca="false">IF(K25&lt;&gt;"",$B25&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V25" s="1" t="str">
+      <c r="W25" s="1" t="str">
         <f aca="false">IF(L25&lt;&gt;"",$B25&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -2811,30 +2867,34 @@
         <v/>
       </c>
       <c r="T26" s="1" t="str">
+        <f aca="false">IF(I26&lt;&gt;"",$B26&amp;"|","")</f>
+        <v>dB|</v>
+      </c>
+      <c r="U26" s="1" t="str">
         <f aca="false">IF(J26&lt;&gt;"",$B26&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U26" s="1" t="str">
+      <c r="V26" s="1" t="str">
         <f aca="false">IF(K26&lt;&gt;"",$B26&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V26" s="1" t="str">
+      <c r="W26" s="1" t="str">
         <f aca="false">IF(L26&lt;&gt;"",$B26&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="16"/>
       <c r="I27" s="16" t="str">
@@ -2866,30 +2926,34 @@
         <v/>
       </c>
       <c r="T27" s="1" t="str">
+        <f aca="false">IF(I27&lt;&gt;"",$B27&amp;"|","")</f>
+        <v>db(A)|</v>
+      </c>
+      <c r="U27" s="1" t="str">
         <f aca="false">IF(J27&lt;&gt;"",$B27&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U27" s="1" t="str">
+      <c r="V27" s="1" t="str">
         <f aca="false">IF(K27&lt;&gt;"",$B27&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V27" s="1" t="str">
+      <c r="W27" s="1" t="str">
         <f aca="false">IF(L27&lt;&gt;"",$B27&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="16"/>
       <c r="I28" s="16" t="str">
@@ -2921,30 +2985,34 @@
         <v/>
       </c>
       <c r="T28" s="1" t="str">
+        <f aca="false">IF(I28&lt;&gt;"",$B28&amp;"|","")</f>
+        <v>db(C)|</v>
+      </c>
+      <c r="U28" s="1" t="str">
         <f aca="false">IF(J28&lt;&gt;"",$B28&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U28" s="1" t="str">
+      <c r="V28" s="1" t="str">
         <f aca="false">IF(K28&lt;&gt;"",$B28&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V28" s="1" t="str">
+      <c r="W28" s="1" t="str">
         <f aca="false">IF(L28&lt;&gt;"",$B28&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="16"/>
       <c r="I29" s="16" t="str">
@@ -2976,30 +3044,34 @@
         <v/>
       </c>
       <c r="T29" s="1" t="str">
+        <f aca="false">IF(I29&lt;&gt;"",$B29&amp;"|","")</f>
+        <v>db(G)|</v>
+      </c>
+      <c r="U29" s="1" t="str">
         <f aca="false">IF(J29&lt;&gt;"",$B29&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U29" s="1" t="str">
+      <c r="V29" s="1" t="str">
         <f aca="false">IF(K29&lt;&gt;"",$B29&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V29" s="1" t="str">
+      <c r="W29" s="1" t="str">
         <f aca="false">IF(L29&lt;&gt;"",$B29&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="16"/>
       <c r="I30" s="16" t="str">
@@ -3031,32 +3103,36 @@
         <v/>
       </c>
       <c r="T30" s="1" t="str">
+        <f aca="false">IF(I30&lt;&gt;"",$B30&amp;"|","")</f>
+        <v>db(Z)|</v>
+      </c>
+      <c r="U30" s="1" t="str">
         <f aca="false">IF(J30&lt;&gt;"",$B30&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U30" s="1" t="str">
+      <c r="V30" s="1" t="str">
         <f aca="false">IF(K30&lt;&gt;"",$B30&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V30" s="1" t="str">
+      <c r="W30" s="1" t="str">
         <f aca="false">IF(L30&lt;&gt;"",$B30&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -3092,24 +3168,28 @@
         <v/>
       </c>
       <c r="T31" s="1" t="str">
+        <f aca="false">IF(I31&lt;&gt;"",$B31&amp;"|","")</f>
+        <v>dpt|</v>
+      </c>
+      <c r="U31" s="1" t="str">
         <f aca="false">IF(J31&lt;&gt;"",$B31&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U31" s="1" t="str">
+      <c r="V31" s="1" t="str">
         <f aca="false">IF(K31&lt;&gt;"",$B31&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V31" s="1" t="str">
+      <c r="W31" s="1" t="str">
         <f aca="false">IF(L31&lt;&gt;"",$B31&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -3149,24 +3229,28 @@
         <v/>
       </c>
       <c r="T32" s="1" t="str">
+        <f aca="false">IF(I32&lt;&gt;"",$B32&amp;"|","")</f>
+        <v>dz|</v>
+      </c>
+      <c r="U32" s="1" t="str">
         <f aca="false">IF(J32&lt;&gt;"",$B32&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U32" s="1" t="str">
+      <c r="V32" s="1" t="str">
         <f aca="false">IF(K32&lt;&gt;"",$B32&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V32" s="1" t="str">
+      <c r="W32" s="1" t="str">
         <f aca="false">IF(L32&lt;&gt;"",$B32&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -3206,33 +3290,37 @@
         <v/>
       </c>
       <c r="T33" s="1" t="str">
+        <f aca="false">IF(I33&lt;&gt;"",$B33&amp;"|","")</f>
+        <v>Dz|</v>
+      </c>
+      <c r="U33" s="1" t="str">
         <f aca="false">IF(J33&lt;&gt;"",$B33&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U33" s="1" t="str">
+      <c r="V33" s="1" t="str">
         <f aca="false">IF(K33&lt;&gt;"",$B33&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V33" s="1" t="str">
+      <c r="W33" s="1" t="str">
         <f aca="false">IF(L33&lt;&gt;"",$B33&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="16" t="str">
         <f aca="false">IF(G34="","x","")</f>
@@ -3263,38 +3351,42 @@
         <v/>
       </c>
       <c r="T34" s="1" t="str">
+        <f aca="false">IF(I34&lt;&gt;"",$B34&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U34" s="1" t="str">
         <f aca="false">IF(J34&lt;&gt;"",$B34&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U34" s="1" t="str">
+      <c r="V34" s="1" t="str">
         <f aca="false">IF(K34&lt;&gt;"",$B34&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V34" s="1" t="str">
+      <c r="W34" s="1" t="str">
         <f aca="false">IF(L34&lt;&gt;"",$B34&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="16" t="str">
         <f aca="false">IF(G35="","x","")</f>
@@ -3328,24 +3420,28 @@
         <v>F|</v>
       </c>
       <c r="T35" s="1" t="str">
+        <f aca="false">IF(I35&lt;&gt;"",$B35&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U35" s="1" t="str">
         <f aca="false">IF(J35&lt;&gt;"",$B35&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U35" s="1" t="str">
+      <c r="V35" s="1" t="str">
         <f aca="false">IF(K35&lt;&gt;"",$B35&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V35" s="1" t="str">
+      <c r="W35" s="1" t="str">
         <f aca="false">IF(L35&lt;&gt;"",$B35&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -3385,35 +3481,39 @@
         <v/>
       </c>
       <c r="T36" s="1" t="str">
+        <f aca="false">IF(I36&lt;&gt;"",$B36&amp;"|","")</f>
+        <v>ft|</v>
+      </c>
+      <c r="U36" s="1" t="str">
         <f aca="false">IF(J36&lt;&gt;"",$B36&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U36" s="1" t="str">
+      <c r="V36" s="1" t="str">
         <f aca="false">IF(K36&lt;&gt;"",$B36&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V36" s="1" t="str">
+      <c r="W36" s="1" t="str">
         <f aca="false">IF(L36&lt;&gt;"",$B36&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="str">
@@ -3448,24 +3548,28 @@
         <v/>
       </c>
       <c r="T37" s="1" t="str">
+        <f aca="false">IF(I37&lt;&gt;"",$B37&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U37" s="1" t="str">
         <f aca="false">IF(J37&lt;&gt;"",$B37&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U37" s="1" t="str">
+      <c r="V37" s="1" t="str">
         <f aca="false">IF(K37&lt;&gt;"",$B37&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V37" s="1" t="str">
+      <c r="W37" s="1" t="str">
         <f aca="false">IF(L37&lt;&gt;"",$B37&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -3505,38 +3609,42 @@
         <v/>
       </c>
       <c r="T38" s="1" t="str">
+        <f aca="false">IF(I38&lt;&gt;"",$B38&amp;"|","")</f>
+        <v>gal|</v>
+      </c>
+      <c r="U38" s="1" t="str">
         <f aca="false">IF(J38&lt;&gt;"",$B38&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U38" s="1" t="str">
+      <c r="V38" s="1" t="str">
         <f aca="false">IF(K38&lt;&gt;"",$B38&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V38" s="1" t="str">
+      <c r="W38" s="1" t="str">
         <f aca="false">IF(L38&lt;&gt;"",$B38&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" s="16" t="str">
         <f aca="false">IF(G39="","x","")</f>
@@ -3570,38 +3678,42 @@
         <v>Gy|</v>
       </c>
       <c r="T39" s="1" t="str">
+        <f aca="false">IF(I39&lt;&gt;"",$B39&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U39" s="1" t="str">
         <f aca="false">IF(J39&lt;&gt;"",$B39&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U39" s="1" t="str">
+      <c r="V39" s="1" t="str">
         <f aca="false">IF(K39&lt;&gt;"",$B39&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V39" s="1" t="str">
+      <c r="W39" s="1" t="str">
         <f aca="false">IF(L39&lt;&gt;"",$B39&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" s="16" t="str">
         <f aca="false">IF(G40="","x","")</f>
@@ -3635,35 +3747,39 @@
         <v>H|</v>
       </c>
       <c r="T40" s="1" t="str">
+        <f aca="false">IF(I40&lt;&gt;"",$B40&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U40" s="1" t="str">
         <f aca="false">IF(J40&lt;&gt;"",$B40&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U40" s="1" t="str">
+      <c r="V40" s="1" t="str">
         <f aca="false">IF(K40&lt;&gt;"",$B40&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V40" s="1" t="str">
+      <c r="W40" s="1" t="str">
         <f aca="false">IF(L40&lt;&gt;"",$B40&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16" t="str">
@@ -3698,32 +3814,36 @@
         <v/>
       </c>
       <c r="T41" s="1" t="str">
+        <f aca="false">IF(I41&lt;&gt;"",$B41&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U41" s="1" t="str">
         <f aca="false">IF(J41&lt;&gt;"",$B41&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U41" s="1" t="str">
+      <c r="V41" s="1" t="str">
         <f aca="false">IF(K41&lt;&gt;"",$B41&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V41" s="1" t="str">
+      <c r="W41" s="1" t="str">
         <f aca="false">IF(L41&lt;&gt;"",$B41&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -3733,10 +3853,10 @@
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N42" s="1" t="str">
         <f aca="false">IF(C42&lt;&gt;"",$B42&amp;"|","")</f>
@@ -3763,24 +3883,28 @@
         <v/>
       </c>
       <c r="T42" s="1" t="str">
+        <f aca="false">IF(I42&lt;&gt;"",$B42&amp;"|","")</f>
+        <v>ha|</v>
+      </c>
+      <c r="U42" s="1" t="str">
         <f aca="false">IF(J42&lt;&gt;"",$B42&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U42" s="1" t="str">
+      <c r="V42" s="1" t="str">
         <f aca="false">IF(K42&lt;&gt;"",$B42&amp;"|","")</f>
         <v>ha|</v>
       </c>
-      <c r="V42" s="1" t="str">
+      <c r="W42" s="1" t="str">
         <f aca="false">IF(L42&lt;&gt;"",$B42&amp;"|","")</f>
         <v>ha|</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -3820,24 +3944,28 @@
         <v/>
       </c>
       <c r="T43" s="1" t="str">
+        <f aca="false">IF(I43&lt;&gt;"",$B43&amp;"|","")</f>
+        <v>hl|</v>
+      </c>
+      <c r="U43" s="1" t="str">
         <f aca="false">IF(J43&lt;&gt;"",$B43&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U43" s="1" t="str">
+      <c r="V43" s="1" t="str">
         <f aca="false">IF(K43&lt;&gt;"",$B43&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V43" s="1" t="str">
+      <c r="W43" s="1" t="str">
         <f aca="false">IF(L43&lt;&gt;"",$B43&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -3877,38 +4005,42 @@
         <v/>
       </c>
       <c r="T44" s="1" t="str">
+        <f aca="false">IF(I44&lt;&gt;"",$B44&amp;"|","")</f>
+        <v>hp|</v>
+      </c>
+      <c r="U44" s="1" t="str">
         <f aca="false">IF(J44&lt;&gt;"",$B44&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U44" s="1" t="str">
+      <c r="V44" s="1" t="str">
         <f aca="false">IF(K44&lt;&gt;"",$B44&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V44" s="1" t="str">
+      <c r="W44" s="1" t="str">
         <f aca="false">IF(L44&lt;&gt;"",$B44&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" s="16" t="str">
         <f aca="false">IF(G45="","x","")</f>
@@ -3942,24 +4074,28 @@
         <v>Hz|</v>
       </c>
       <c r="T45" s="1" t="str">
+        <f aca="false">IF(I45&lt;&gt;"",$B45&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U45" s="1" t="str">
         <f aca="false">IF(J45&lt;&gt;"",$B45&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U45" s="1" t="str">
+      <c r="V45" s="1" t="str">
         <f aca="false">IF(K45&lt;&gt;"",$B45&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V45" s="1" t="str">
+      <c r="W45" s="1" t="str">
         <f aca="false">IF(L45&lt;&gt;"",$B45&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -3999,38 +4135,42 @@
         <v/>
       </c>
       <c r="T46" s="1" t="str">
+        <f aca="false">IF(I46&lt;&gt;"",$B46&amp;"|","")</f>
+        <v>in|</v>
+      </c>
+      <c r="U46" s="1" t="str">
         <f aca="false">IF(J46&lt;&gt;"",$B46&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U46" s="1" t="str">
+      <c r="V46" s="1" t="str">
         <f aca="false">IF(K46&lt;&gt;"",$B46&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V46" s="1" t="str">
+      <c r="W46" s="1" t="str">
         <f aca="false">IF(L46&lt;&gt;"",$B46&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" s="16" t="str">
         <f aca="false">IF(G47="","x","")</f>
@@ -4064,38 +4204,42 @@
         <v>J|</v>
       </c>
       <c r="T47" s="1" t="str">
+        <f aca="false">IF(I47&lt;&gt;"",$B47&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U47" s="1" t="str">
         <f aca="false">IF(J47&lt;&gt;"",$B47&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U47" s="1" t="str">
+      <c r="V47" s="1" t="str">
         <f aca="false">IF(K47&lt;&gt;"",$B47&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V47" s="1" t="str">
+      <c r="W47" s="1" t="str">
         <f aca="false">IF(L47&lt;&gt;"",$B47&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" s="16" t="str">
         <f aca="false">IF(G48="","x","")</f>
@@ -4129,38 +4273,42 @@
         <v>K|</v>
       </c>
       <c r="T48" s="1" t="str">
+        <f aca="false">IF(I48&lt;&gt;"",$B48&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U48" s="1" t="str">
         <f aca="false">IF(J48&lt;&gt;"",$B48&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U48" s="1" t="str">
+      <c r="V48" s="1" t="str">
         <f aca="false">IF(K48&lt;&gt;"",$B48&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V48" s="1" t="str">
+      <c r="W48" s="1" t="str">
         <f aca="false">IF(L48&lt;&gt;"",$B48&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" s="16" t="str">
         <f aca="false">IF(G49="","x","")</f>
@@ -4194,32 +4342,36 @@
         <v>kat|</v>
       </c>
       <c r="T49" s="1" t="str">
+        <f aca="false">IF(I49&lt;&gt;"",$B49&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U49" s="1" t="str">
         <f aca="false">IF(J49&lt;&gt;"",$B49&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U49" s="1" t="str">
+      <c r="V49" s="1" t="str">
         <f aca="false">IF(K49&lt;&gt;"",$B49&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V49" s="1" t="str">
+      <c r="W49" s="1" t="str">
         <f aca="false">IF(L49&lt;&gt;"",$B49&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -4255,24 +4407,28 @@
         <v/>
       </c>
       <c r="T50" s="1" t="str">
+        <f aca="false">IF(I50&lt;&gt;"",$B50&amp;"|","")</f>
+        <v>kn|</v>
+      </c>
+      <c r="U50" s="1" t="str">
         <f aca="false">IF(J50&lt;&gt;"",$B50&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U50" s="1" t="str">
+      <c r="V50" s="1" t="str">
         <f aca="false">IF(K50&lt;&gt;"",$B50&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V50" s="1" t="str">
+      <c r="W50" s="1" t="str">
         <f aca="false">IF(L50&lt;&gt;"",$B50&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4312,32 +4468,36 @@
         <v/>
       </c>
       <c r="T51" s="1" t="str">
+        <f aca="false">IF(I51&lt;&gt;"",$B51&amp;"|","")</f>
+        <v>kt|</v>
+      </c>
+      <c r="U51" s="1" t="str">
         <f aca="false">IF(J51&lt;&gt;"",$B51&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U51" s="1" t="str">
+      <c r="V51" s="1" t="str">
         <f aca="false">IF(K51&lt;&gt;"",$B51&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V51" s="1" t="str">
+      <c r="W51" s="1" t="str">
         <f aca="false">IF(L51&lt;&gt;"",$B51&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -4373,32 +4533,36 @@
         <v/>
       </c>
       <c r="T52" s="1" t="str">
+        <f aca="false">IF(I52&lt;&gt;"",$B52&amp;"|","")</f>
+        <v>kt|</v>
+      </c>
+      <c r="U52" s="1" t="str">
         <f aca="false">IF(J52&lt;&gt;"",$B52&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U52" s="1" t="str">
+      <c r="V52" s="1" t="str">
         <f aca="false">IF(K52&lt;&gt;"",$B52&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V52" s="1" t="str">
+      <c r="W52" s="1" t="str">
         <f aca="false">IF(L52&lt;&gt;"",$B52&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -4434,32 +4598,36 @@
         <v/>
       </c>
       <c r="T53" s="1" t="str">
+        <f aca="false">IF(I53&lt;&gt;"",$B53&amp;"|","")</f>
+        <v>l|</v>
+      </c>
+      <c r="U53" s="1" t="str">
         <f aca="false">IF(J53&lt;&gt;"",$B53&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U53" s="1" t="str">
+      <c r="V53" s="1" t="str">
         <f aca="false">IF(K53&lt;&gt;"",$B53&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V53" s="1" t="str">
+      <c r="W53" s="1" t="str">
         <f aca="false">IF(L53&lt;&gt;"",$B53&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -4495,24 +4663,28 @@
         <v/>
       </c>
       <c r="T54" s="1" t="str">
+        <f aca="false">IF(I54&lt;&gt;"",$B54&amp;"|","")</f>
+        <v>L|</v>
+      </c>
+      <c r="U54" s="1" t="str">
         <f aca="false">IF(J54&lt;&gt;"",$B54&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U54" s="1" t="str">
+      <c r="V54" s="1" t="str">
         <f aca="false">IF(K54&lt;&gt;"",$B54&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V54" s="1" t="str">
+      <c r="W54" s="1" t="str">
         <f aca="false">IF(L54&lt;&gt;"",$B54&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -4552,24 +4724,28 @@
         <v/>
       </c>
       <c r="T55" s="1" t="str">
+        <f aca="false">IF(I55&lt;&gt;"",$B55&amp;"|","")</f>
+        <v>lb|</v>
+      </c>
+      <c r="U55" s="1" t="str">
         <f aca="false">IF(J55&lt;&gt;"",$B55&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U55" s="1" t="str">
+      <c r="V55" s="1" t="str">
         <f aca="false">IF(K55&lt;&gt;"",$B55&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V55" s="1" t="str">
+      <c r="W55" s="1" t="str">
         <f aca="false">IF(L55&lt;&gt;"",$B55&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -4609,38 +4785,42 @@
         <v/>
       </c>
       <c r="T56" s="1" t="str">
+        <f aca="false">IF(I56&lt;&gt;"",$B56&amp;"|","")</f>
+        <v>lj|</v>
+      </c>
+      <c r="U56" s="1" t="str">
         <f aca="false">IF(J56&lt;&gt;"",$B56&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U56" s="1" t="str">
+      <c r="V56" s="1" t="str">
         <f aca="false">IF(K56&lt;&gt;"",$B56&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V56" s="1" t="str">
+      <c r="W56" s="1" t="str">
         <f aca="false">IF(L56&lt;&gt;"",$B56&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I57" s="16" t="str">
         <f aca="false">IF(G57="","x","")</f>
@@ -4674,24 +4854,28 @@
         <v>lm|</v>
       </c>
       <c r="T57" s="1" t="str">
+        <f aca="false">IF(I57&lt;&gt;"",$B57&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U57" s="1" t="str">
         <f aca="false">IF(J57&lt;&gt;"",$B57&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U57" s="1" t="str">
+      <c r="V57" s="1" t="str">
         <f aca="false">IF(K57&lt;&gt;"",$B57&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V57" s="1" t="str">
+      <c r="W57" s="1" t="str">
         <f aca="false">IF(L57&lt;&gt;"",$B57&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -4731,38 +4915,42 @@
         <v/>
       </c>
       <c r="T58" s="1" t="str">
+        <f aca="false">IF(I58&lt;&gt;"",$B58&amp;"|","")</f>
+        <v>ls|</v>
+      </c>
+      <c r="U58" s="1" t="str">
         <f aca="false">IF(J58&lt;&gt;"",$B58&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U58" s="1" t="str">
+      <c r="V58" s="1" t="str">
         <f aca="false">IF(K58&lt;&gt;"",$B58&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V58" s="1" t="str">
+      <c r="W58" s="1" t="str">
         <f aca="false">IF(L58&lt;&gt;"",$B58&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I59" s="16" t="str">
         <f aca="false">IF(G59="","x","")</f>
@@ -4796,38 +4984,42 @@
         <v>lx|</v>
       </c>
       <c r="T59" s="1" t="str">
+        <f aca="false">IF(I59&lt;&gt;"",$B59&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U59" s="1" t="str">
         <f aca="false">IF(J59&lt;&gt;"",$B59&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U59" s="1" t="str">
+      <c r="V59" s="1" t="str">
         <f aca="false">IF(K59&lt;&gt;"",$B59&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V59" s="1" t="str">
+      <c r="W59" s="1" t="str">
         <f aca="false">IF(L59&lt;&gt;"",$B59&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" s="16" t="str">
         <f aca="false">IF(G60="","x","")</f>
@@ -4835,10 +5027,10 @@
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N60" s="1" t="str">
         <f aca="false">IF(C60&lt;&gt;"",$B60&amp;"|","")</f>
@@ -4865,32 +5057,36 @@
         <v>m|</v>
       </c>
       <c r="T60" s="1" t="str">
+        <f aca="false">IF(I60&lt;&gt;"",$B60&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U60" s="1" t="str">
         <f aca="false">IF(J60&lt;&gt;"",$B60&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U60" s="1" t="str">
+      <c r="V60" s="1" t="str">
         <f aca="false">IF(K60&lt;&gt;"",$B60&amp;"|","")</f>
         <v>m|</v>
       </c>
-      <c r="V60" s="1" t="str">
+      <c r="W60" s="1" t="str">
         <f aca="false">IF(L60&lt;&gt;"",$B60&amp;"|","")</f>
         <v>m|</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -4926,24 +5122,28 @@
         <v/>
       </c>
       <c r="T61" s="1" t="str">
+        <f aca="false">IF(I61&lt;&gt;"",$B61&amp;"|","")</f>
+        <v>mel|</v>
+      </c>
+      <c r="U61" s="1" t="str">
         <f aca="false">IF(J61&lt;&gt;"",$B61&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U61" s="1" t="str">
+      <c r="V61" s="1" t="str">
         <f aca="false">IF(K61&lt;&gt;"",$B61&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V61" s="1" t="str">
+      <c r="W61" s="1" t="str">
         <f aca="false">IF(L61&lt;&gt;"",$B61&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -4957,10 +5157,10 @@
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N62" s="1" t="str">
         <f aca="false">IF(C62&lt;&gt;"",$B62&amp;"|","")</f>
@@ -4987,32 +5187,36 @@
         <v/>
       </c>
       <c r="T62" s="1" t="str">
+        <f aca="false">IF(I62&lt;&gt;"",$B62&amp;"|","")</f>
+        <v>mi|</v>
+      </c>
+      <c r="U62" s="1" t="str">
         <f aca="false">IF(J62&lt;&gt;"",$B62&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U62" s="1" t="str">
+      <c r="V62" s="1" t="str">
         <f aca="false">IF(K62&lt;&gt;"",$B62&amp;"|","")</f>
         <v>mi|</v>
       </c>
-      <c r="V62" s="1" t="str">
+      <c r="W62" s="1" t="str">
         <f aca="false">IF(L62&lt;&gt;"",$B62&amp;"|","")</f>
         <v>mi|</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -5048,38 +5252,42 @@
         <v/>
       </c>
       <c r="T63" s="1" t="str">
+        <f aca="false">IF(I63&lt;&gt;"",$B63&amp;"|","")</f>
+        <v>min|</v>
+      </c>
+      <c r="U63" s="1" t="str">
         <f aca="false">IF(J63&lt;&gt;"",$B63&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U63" s="1" t="str">
+      <c r="V63" s="1" t="str">
         <f aca="false">IF(K63&lt;&gt;"",$B63&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V63" s="1" t="str">
+      <c r="W63" s="1" t="str">
         <f aca="false">IF(L63&lt;&gt;"",$B63&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" s="16" t="str">
         <f aca="false">IF(G64="","x","")</f>
@@ -5113,35 +5321,39 @@
         <v>mol|</v>
       </c>
       <c r="T64" s="1" t="str">
+        <f aca="false">IF(I64&lt;&gt;"",$B64&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U64" s="1" t="str">
         <f aca="false">IF(J64&lt;&gt;"",$B64&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U64" s="1" t="str">
+      <c r="V64" s="1" t="str">
         <f aca="false">IF(K64&lt;&gt;"",$B64&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V64" s="1" t="str">
+      <c r="W64" s="1" t="str">
         <f aca="false">IF(L64&lt;&gt;"",$B64&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="str">
@@ -5176,32 +5388,36 @@
         <v/>
       </c>
       <c r="T65" s="1" t="str">
+        <f aca="false">IF(I65&lt;&gt;"",$B65&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U65" s="1" t="str">
         <f aca="false">IF(J65&lt;&gt;"",$B65&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U65" s="1" t="str">
+      <c r="V65" s="1" t="str">
         <f aca="false">IF(K65&lt;&gt;"",$B65&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V65" s="1" t="str">
+      <c r="W65" s="1" t="str">
         <f aca="false">IF(L65&lt;&gt;"",$B65&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -5237,24 +5453,28 @@
         <v/>
       </c>
       <c r="T66" s="1" t="str">
+        <f aca="false">IF(I66&lt;&gt;"",$B66&amp;"|","")</f>
+        <v>Np|</v>
+      </c>
+      <c r="U66" s="1" t="str">
         <f aca="false">IF(J66&lt;&gt;"",$B66&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U66" s="1" t="str">
+      <c r="V66" s="1" t="str">
         <f aca="false">IF(K66&lt;&gt;"",$B66&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V66" s="1" t="str">
+      <c r="W66" s="1" t="str">
         <f aca="false">IF(L66&lt;&gt;"",$B66&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5294,35 +5514,39 @@
         <v/>
       </c>
       <c r="T67" s="1" t="str">
+        <f aca="false">IF(I67&lt;&gt;"",$B67&amp;"|","")</f>
+        <v>º|</v>
+      </c>
+      <c r="U67" s="1" t="str">
         <f aca="false">IF(J67&lt;&gt;"",$B67&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U67" s="1" t="str">
+      <c r="V67" s="1" t="str">
         <f aca="false">IF(K67&lt;&gt;"",$B67&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V67" s="1" t="str">
+      <c r="W67" s="1" t="str">
         <f aca="false">IF(L67&lt;&gt;"",$B67&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="16" t="str">
@@ -5357,24 +5581,28 @@
         <v/>
       </c>
       <c r="T68" s="1" t="str">
+        <f aca="false">IF(I68&lt;&gt;"",$B68&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U68" s="1" t="str">
         <f aca="false">IF(J68&lt;&gt;"",$B68&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U68" s="1" t="str">
+      <c r="V68" s="1" t="str">
         <f aca="false">IF(K68&lt;&gt;"",$B68&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V68" s="1" t="str">
+      <c r="W68" s="1" t="str">
         <f aca="false">IF(L68&lt;&gt;"",$B68&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5414,24 +5642,28 @@
         <v/>
       </c>
       <c r="T69" s="1" t="str">
+        <f aca="false">IF(I69&lt;&gt;"",$B69&amp;"|","")</f>
+        <v>oz|</v>
+      </c>
+      <c r="U69" s="1" t="str">
         <f aca="false">IF(J69&lt;&gt;"",$B69&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U69" s="1" t="str">
+      <c r="V69" s="1" t="str">
         <f aca="false">IF(K69&lt;&gt;"",$B69&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V69" s="1" t="str">
+      <c r="W69" s="1" t="str">
         <f aca="false">IF(L69&lt;&gt;"",$B69&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -5471,35 +5703,39 @@
         <v/>
       </c>
       <c r="T70" s="1" t="str">
+        <f aca="false">IF(I70&lt;&gt;"",$B70&amp;"|","")</f>
+        <v>oz.|</v>
+      </c>
+      <c r="U70" s="1" t="str">
         <f aca="false">IF(J70&lt;&gt;"",$B70&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U70" s="1" t="str">
+      <c r="V70" s="1" t="str">
         <f aca="false">IF(K70&lt;&gt;"",$B70&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V70" s="1" t="str">
+      <c r="W70" s="1" t="str">
         <f aca="false">IF(L70&lt;&gt;"",$B70&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16" t="str">
@@ -5534,24 +5770,28 @@
         <v/>
       </c>
       <c r="T71" s="1" t="str">
+        <f aca="false">IF(I71&lt;&gt;"",$B71&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U71" s="1" t="str">
         <f aca="false">IF(J71&lt;&gt;"",$B71&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U71" s="1" t="str">
+      <c r="V71" s="1" t="str">
         <f aca="false">IF(K71&lt;&gt;"",$B71&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V71" s="1" t="str">
+      <c r="W71" s="1" t="str">
         <f aca="false">IF(L71&lt;&gt;"",$B71&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -5591,38 +5831,42 @@
         <v/>
       </c>
       <c r="T72" s="1" t="str">
+        <f aca="false">IF(I72&lt;&gt;"",$B72&amp;"|","")</f>
+        <v>p|</v>
+      </c>
+      <c r="U72" s="1" t="str">
         <f aca="false">IF(J72&lt;&gt;"",$B72&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U72" s="1" t="str">
+      <c r="V72" s="1" t="str">
         <f aca="false">IF(K72&lt;&gt;"",$B72&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V72" s="1" t="str">
+      <c r="W72" s="1" t="str">
         <f aca="false">IF(L72&lt;&gt;"",$B72&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" s="16" t="str">
         <f aca="false">IF(G73="","x","")</f>
@@ -5656,24 +5900,28 @@
         <v>Pa|</v>
       </c>
       <c r="T73" s="1" t="str">
+        <f aca="false">IF(I73&lt;&gt;"",$B73&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U73" s="1" t="str">
         <f aca="false">IF(J73&lt;&gt;"",$B73&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U73" s="1" t="str">
+      <c r="V73" s="1" t="str">
         <f aca="false">IF(K73&lt;&gt;"",$B73&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V73" s="1" t="str">
+      <c r="W73" s="1" t="str">
         <f aca="false">IF(L73&lt;&gt;"",$B73&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -5713,32 +5961,36 @@
         <v/>
       </c>
       <c r="T74" s="1" t="str">
+        <f aca="false">IF(I74&lt;&gt;"",$B74&amp;"|","")</f>
+        <v>pc|</v>
+      </c>
+      <c r="U74" s="1" t="str">
         <f aca="false">IF(J74&lt;&gt;"",$B74&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U74" s="1" t="str">
+      <c r="V74" s="1" t="str">
         <f aca="false">IF(K74&lt;&gt;"",$B74&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V74" s="1" t="str">
+      <c r="W74" s="1" t="str">
         <f aca="false">IF(L74&lt;&gt;"",$B74&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -5774,35 +6026,39 @@
         <v/>
       </c>
       <c r="T75" s="1" t="str">
+        <f aca="false">IF(I75&lt;&gt;"",$B75&amp;"|","")</f>
+        <v>PS|</v>
+      </c>
+      <c r="U75" s="1" t="str">
         <f aca="false">IF(J75&lt;&gt;"",$B75&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U75" s="1" t="str">
+      <c r="V75" s="1" t="str">
         <f aca="false">IF(K75&lt;&gt;"",$B75&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V75" s="1" t="str">
+      <c r="W75" s="1" t="str">
         <f aca="false">IF(L75&lt;&gt;"",$B75&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16" t="str">
@@ -5837,32 +6093,36 @@
         <v/>
       </c>
       <c r="T76" s="1" t="str">
+        <f aca="false">IF(I76&lt;&gt;"",$B76&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U76" s="1" t="str">
         <f aca="false">IF(J76&lt;&gt;"",$B76&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U76" s="1" t="str">
+      <c r="V76" s="1" t="str">
         <f aca="false">IF(K76&lt;&gt;"",$B76&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V76" s="1" t="str">
+      <c r="W76" s="1" t="str">
         <f aca="false">IF(L76&lt;&gt;"",$B76&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -5898,24 +6158,28 @@
         <v/>
       </c>
       <c r="T77" s="1" t="str">
+        <f aca="false">IF(I77&lt;&gt;"",$B77&amp;"|","")</f>
+        <v>rad|</v>
+      </c>
+      <c r="U77" s="1" t="str">
         <f aca="false">IF(J77&lt;&gt;"",$B77&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U77" s="1" t="str">
+      <c r="V77" s="1" t="str">
         <f aca="false">IF(K77&lt;&gt;"",$B77&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V77" s="1" t="str">
+      <c r="W77" s="1" t="str">
         <f aca="false">IF(L77&lt;&gt;"",$B77&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -5955,38 +6219,42 @@
         <v/>
       </c>
       <c r="T78" s="1" t="str">
+        <f aca="false">IF(I78&lt;&gt;"",$B78&amp;"|","")</f>
+        <v>rm|</v>
+      </c>
+      <c r="U78" s="1" t="str">
         <f aca="false">IF(J78&lt;&gt;"",$B78&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U78" s="1" t="str">
+      <c r="V78" s="1" t="str">
         <f aca="false">IF(K78&lt;&gt;"",$B78&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V78" s="1" t="str">
+      <c r="W78" s="1" t="str">
         <f aca="false">IF(L78&lt;&gt;"",$B78&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I79" s="16" t="str">
         <f aca="false">IF(G79="","x","")</f>
@@ -6020,38 +6288,42 @@
         <v>s|</v>
       </c>
       <c r="T79" s="1" t="str">
+        <f aca="false">IF(I79&lt;&gt;"",$B79&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U79" s="1" t="str">
         <f aca="false">IF(J79&lt;&gt;"",$B79&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U79" s="1" t="str">
+      <c r="V79" s="1" t="str">
         <f aca="false">IF(K79&lt;&gt;"",$B79&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V79" s="1" t="str">
+      <c r="W79" s="1" t="str">
         <f aca="false">IF(L79&lt;&gt;"",$B79&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I80" s="16" t="str">
         <f aca="false">IF(G80="","x","")</f>
@@ -6085,32 +6357,36 @@
         <v>S|</v>
       </c>
       <c r="T80" s="1" t="str">
+        <f aca="false">IF(I80&lt;&gt;"",$B80&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U80" s="1" t="str">
         <f aca="false">IF(J80&lt;&gt;"",$B80&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U80" s="1" t="str">
+      <c r="V80" s="1" t="str">
         <f aca="false">IF(K80&lt;&gt;"",$B80&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V80" s="1" t="str">
+      <c r="W80" s="1" t="str">
         <f aca="false">IF(L80&lt;&gt;"",$B80&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
@@ -6146,24 +6422,28 @@
         <v/>
       </c>
       <c r="T81" s="1" t="str">
+        <f aca="false">IF(I81&lt;&gt;"",$B81&amp;"|","")</f>
+        <v>sone|</v>
+      </c>
+      <c r="U81" s="1" t="str">
         <f aca="false">IF(J81&lt;&gt;"",$B81&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U81" s="1" t="str">
+      <c r="V81" s="1" t="str">
         <f aca="false">IF(K81&lt;&gt;"",$B81&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V81" s="1" t="str">
+      <c r="W81" s="1" t="str">
         <f aca="false">IF(L81&lt;&gt;"",$B81&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -6175,8 +6455,9 @@
         <f aca="false">IF(G82="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J82" s="16" t="s">
-        <v>21</v>
+      <c r="J82" s="16" t="str">
+        <f aca="false">IF(H82="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
@@ -6205,24 +6486,28 @@
         <v/>
       </c>
       <c r="T82" s="1" t="str">
+        <f aca="false">IF(I82&lt;&gt;"",$B82&amp;"|","")</f>
+        <v>sq.ft.|</v>
+      </c>
+      <c r="U82" s="1" t="str">
         <f aca="false">IF(J82&lt;&gt;"",$B82&amp;"|","")</f>
         <v>sq.ft.|</v>
       </c>
-      <c r="U82" s="1" t="str">
+      <c r="V82" s="1" t="str">
         <f aca="false">IF(K82&lt;&gt;"",$B82&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V82" s="1" t="str">
+      <c r="W82" s="1" t="str">
         <f aca="false">IF(L82&lt;&gt;"",$B82&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -6234,8 +6519,9 @@
         <f aca="false">IF(G83="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J83" s="16" t="s">
-        <v>21</v>
+      <c r="J83" s="16" t="str">
+        <f aca="false">IF(H83="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
@@ -6264,24 +6550,28 @@
         <v/>
       </c>
       <c r="T83" s="1" t="str">
+        <f aca="false">IF(I83&lt;&gt;"",$B83&amp;"|","")</f>
+        <v>sq.in.|</v>
+      </c>
+      <c r="U83" s="1" t="str">
         <f aca="false">IF(J83&lt;&gt;"",$B83&amp;"|","")</f>
         <v>sq.in.|</v>
       </c>
-      <c r="U83" s="1" t="str">
+      <c r="V83" s="1" t="str">
         <f aca="false">IF(K83&lt;&gt;"",$B83&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V83" s="1" t="str">
+      <c r="W83" s="1" t="str">
         <f aca="false">IF(L83&lt;&gt;"",$B83&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -6293,8 +6583,9 @@
         <f aca="false">IF(G84="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J84" s="16" t="s">
-        <v>21</v>
+      <c r="J84" s="16" t="str">
+        <f aca="false">IF(H84="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
@@ -6323,24 +6614,28 @@
         <v/>
       </c>
       <c r="T84" s="1" t="str">
+        <f aca="false">IF(I84&lt;&gt;"",$B84&amp;"|","")</f>
+        <v>sq.mile|</v>
+      </c>
+      <c r="U84" s="1" t="str">
         <f aca="false">IF(J84&lt;&gt;"",$B84&amp;"|","")</f>
         <v>sq.mile|</v>
       </c>
-      <c r="U84" s="1" t="str">
+      <c r="V84" s="1" t="str">
         <f aca="false">IF(K84&lt;&gt;"",$B84&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V84" s="1" t="str">
+      <c r="W84" s="1" t="str">
         <f aca="false">IF(L84&lt;&gt;"",$B84&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -6352,8 +6647,9 @@
         <f aca="false">IF(G85="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J85" s="16" t="s">
-        <v>21</v>
+      <c r="J85" s="16" t="str">
+        <f aca="false">IF(H85="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
@@ -6382,24 +6678,28 @@
         <v/>
       </c>
       <c r="T85" s="1" t="str">
+        <f aca="false">IF(I85&lt;&gt;"",$B85&amp;"|","")</f>
+        <v>sq.yd.|</v>
+      </c>
+      <c r="U85" s="1" t="str">
         <f aca="false">IF(J85&lt;&gt;"",$B85&amp;"|","")</f>
         <v>sq.yd.|</v>
       </c>
-      <c r="U85" s="1" t="str">
+      <c r="V85" s="1" t="str">
         <f aca="false">IF(K85&lt;&gt;"",$B85&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V85" s="1" t="str">
+      <c r="W85" s="1" t="str">
         <f aca="false">IF(L85&lt;&gt;"",$B85&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -6411,8 +6711,9 @@
         <f aca="false">IF(G86="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J86" s="16" t="s">
-        <v>21</v>
+      <c r="J86" s="16" t="str">
+        <f aca="false">IF(H86="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
@@ -6441,24 +6742,28 @@
         <v/>
       </c>
       <c r="T86" s="1" t="str">
+        <f aca="false">IF(I86&lt;&gt;"",$B86&amp;"|","")</f>
+        <v>sq. ft.|</v>
+      </c>
+      <c r="U86" s="1" t="str">
         <f aca="false">IF(J86&lt;&gt;"",$B86&amp;"|","")</f>
-        <v>sq ft|</v>
-      </c>
-      <c r="U86" s="1" t="str">
+        <v>sq. ft.|</v>
+      </c>
+      <c r="V86" s="1" t="str">
         <f aca="false">IF(K86&lt;&gt;"",$B86&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V86" s="1" t="str">
+      <c r="W86" s="1" t="str">
         <f aca="false">IF(L86&lt;&gt;"",$B86&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -6470,8 +6775,9 @@
         <f aca="false">IF(G87="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J87" s="16" t="s">
-        <v>21</v>
+      <c r="J87" s="16" t="str">
+        <f aca="false">IF(H87="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
@@ -6500,24 +6806,28 @@
         <v/>
       </c>
       <c r="T87" s="1" t="str">
+        <f aca="false">IF(I87&lt;&gt;"",$B87&amp;"|","")</f>
+        <v>sq. in.|</v>
+      </c>
+      <c r="U87" s="1" t="str">
         <f aca="false">IF(J87&lt;&gt;"",$B87&amp;"|","")</f>
-        <v>sq in|</v>
-      </c>
-      <c r="U87" s="1" t="str">
+        <v>sq. in.|</v>
+      </c>
+      <c r="V87" s="1" t="str">
         <f aca="false">IF(K87&lt;&gt;"",$B87&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V87" s="1" t="str">
+      <c r="W87" s="1" t="str">
         <f aca="false">IF(L87&lt;&gt;"",$B87&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -6529,8 +6839,9 @@
         <f aca="false">IF(G88="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J88" s="16" t="s">
-        <v>21</v>
+      <c r="J88" s="16" t="str">
+        <f aca="false">IF(H88="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -6559,24 +6870,28 @@
         <v/>
       </c>
       <c r="T88" s="1" t="str">
+        <f aca="false">IF(I88&lt;&gt;"",$B88&amp;"|","")</f>
+        <v>sq. mile|</v>
+      </c>
+      <c r="U88" s="1" t="str">
         <f aca="false">IF(J88&lt;&gt;"",$B88&amp;"|","")</f>
-        <v>sq mile|</v>
-      </c>
-      <c r="U88" s="1" t="str">
+        <v>sq. mile|</v>
+      </c>
+      <c r="V88" s="1" t="str">
         <f aca="false">IF(K88&lt;&gt;"",$B88&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V88" s="1" t="str">
+      <c r="W88" s="1" t="str">
         <f aca="false">IF(L88&lt;&gt;"",$B88&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -6588,8 +6903,9 @@
         <f aca="false">IF(G89="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J89" s="16" t="s">
-        <v>21</v>
+      <c r="J89" s="16" t="str">
+        <f aca="false">IF(H89="","x","")</f>
+        <v>x</v>
       </c>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
@@ -6618,44 +6934,43 @@
         <v/>
       </c>
       <c r="T89" s="1" t="str">
+        <f aca="false">IF(I89&lt;&gt;"",$B89&amp;"|","")</f>
+        <v>sq. yd.|</v>
+      </c>
+      <c r="U89" s="1" t="str">
         <f aca="false">IF(J89&lt;&gt;"",$B89&amp;"|","")</f>
-        <v>sq yd|</v>
-      </c>
-      <c r="U89" s="1" t="str">
+        <v>sq. yd.|</v>
+      </c>
+      <c r="V89" s="1" t="str">
         <f aca="false">IF(K89&lt;&gt;"",$B89&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V89" s="1" t="str">
+      <c r="W89" s="1" t="str">
         <f aca="false">IF(L89&lt;&gt;"",$B89&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C90" s="16"/>
-      <c r="D90" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
       <c r="I90" s="16" t="str">
         <f aca="false">IF(G90="","x","")</f>
-        <v/>
-      </c>
-      <c r="J90" s="16"/>
+        <v>x</v>
+      </c>
+      <c r="J90" s="16" t="str">
+        <f aca="false">IF(H90="","x","")</f>
+        <v>x</v>
+      </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
       <c r="N90" s="1" t="str">
@@ -6664,7 +6979,7 @@
       </c>
       <c r="O90" s="1" t="str">
         <f aca="false">IF(D90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v>sr|</v>
+        <v/>
       </c>
       <c r="P90" s="1" t="str">
         <f aca="false">IF(E90&lt;&gt;"",$B90&amp;"|","")</f>
@@ -6672,35 +6987,39 @@
       </c>
       <c r="Q90" s="1" t="str">
         <f aca="false">IF(F90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v>sr|</v>
+        <v/>
       </c>
       <c r="R90" s="1" t="str">
         <f aca="false">IF(G90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v>sr|</v>
+        <v/>
       </c>
       <c r="S90" s="1" t="str">
         <f aca="false">IF(H90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v>sr|</v>
+        <v/>
       </c>
       <c r="T90" s="1" t="str">
+        <f aca="false">IF(I90&lt;&gt;"",$B90&amp;"|","")</f>
+        <v>sq ft|</v>
+      </c>
+      <c r="U90" s="1" t="str">
         <f aca="false">IF(J90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="U90" s="1" t="str">
+        <v>sq ft|</v>
+      </c>
+      <c r="V90" s="1" t="str">
         <f aca="false">IF(K90&lt;&gt;"",$B90&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V90" s="1" t="str">
+      <c r="W90" s="1" t="str">
         <f aca="false">IF(L90&lt;&gt;"",$B90&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -6712,7 +7031,10 @@
         <f aca="false">IF(G91="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J91" s="16"/>
+      <c r="J91" s="16" t="str">
+        <f aca="false">IF(H91="","x","")</f>
+        <v>x</v>
+      </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
       <c r="N91" s="1" t="str">
@@ -6740,44 +7062,43 @@
         <v/>
       </c>
       <c r="T91" s="1" t="str">
+        <f aca="false">IF(I91&lt;&gt;"",$B91&amp;"|","")</f>
+        <v>sq in|</v>
+      </c>
+      <c r="U91" s="1" t="str">
         <f aca="false">IF(J91&lt;&gt;"",$B91&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="U91" s="1" t="str">
+        <v>sq in|</v>
+      </c>
+      <c r="V91" s="1" t="str">
         <f aca="false">IF(K91&lt;&gt;"",$B91&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V91" s="1" t="str">
+      <c r="W91" s="1" t="str">
         <f aca="false">IF(L91&lt;&gt;"",$B91&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C92" s="16"/>
-      <c r="D92" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
       <c r="I92" s="16" t="str">
         <f aca="false">IF(G92="","x","")</f>
-        <v/>
-      </c>
-      <c r="J92" s="16"/>
+        <v>x</v>
+      </c>
+      <c r="J92" s="16" t="str">
+        <f aca="false">IF(H92="","x","")</f>
+        <v>x</v>
+      </c>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="N92" s="1" t="str">
@@ -6786,7 +7107,7 @@
       </c>
       <c r="O92" s="1" t="str">
         <f aca="false">IF(D92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v>Sv|</v>
+        <v/>
       </c>
       <c r="P92" s="1" t="str">
         <f aca="false">IF(E92&lt;&gt;"",$B92&amp;"|","")</f>
@@ -6794,35 +7115,39 @@
       </c>
       <c r="Q92" s="1" t="str">
         <f aca="false">IF(F92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v>Sv|</v>
+        <v/>
       </c>
       <c r="R92" s="1" t="str">
         <f aca="false">IF(G92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v>Sv|</v>
+        <v/>
       </c>
       <c r="S92" s="1" t="str">
         <f aca="false">IF(H92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v>Sv|</v>
+        <v/>
       </c>
       <c r="T92" s="1" t="str">
+        <f aca="false">IF(I92&lt;&gt;"",$B92&amp;"|","")</f>
+        <v>sq mile|</v>
+      </c>
+      <c r="U92" s="1" t="str">
         <f aca="false">IF(J92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="U92" s="1" t="str">
+        <v>sq mile|</v>
+      </c>
+      <c r="V92" s="1" t="str">
         <f aca="false">IF(K92&lt;&gt;"",$B92&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V92" s="1" t="str">
+      <c r="W92" s="1" t="str">
         <f aca="false">IF(L92&lt;&gt;"",$B92&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -6834,7 +7159,10 @@
         <f aca="false">IF(G93="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J93" s="16"/>
+      <c r="J93" s="16" t="str">
+        <f aca="false">IF(H93="","x","")</f>
+        <v>x</v>
+      </c>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="N93" s="1" t="str">
@@ -6862,38 +7190,42 @@
         <v/>
       </c>
       <c r="T93" s="1" t="str">
+        <f aca="false">IF(I93&lt;&gt;"",$B93&amp;"|","")</f>
+        <v>sq yd|</v>
+      </c>
+      <c r="U93" s="1" t="str">
         <f aca="false">IF(J93&lt;&gt;"",$B93&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="U93" s="1" t="str">
+        <v>sq yd|</v>
+      </c>
+      <c r="V93" s="1" t="str">
         <f aca="false">IF(K93&lt;&gt;"",$B93&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V93" s="1" t="str">
+      <c r="W93" s="1" t="str">
         <f aca="false">IF(L93&lt;&gt;"",$B93&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I94" s="16" t="str">
         <f aca="false">IF(G94="","x","")</f>
@@ -6908,7 +7240,7 @@
       </c>
       <c r="O94" s="1" t="str">
         <f aca="false">IF(D94&lt;&gt;"",$B94&amp;"|","")</f>
-        <v>T|</v>
+        <v>sr|</v>
       </c>
       <c r="P94" s="1" t="str">
         <f aca="false">IF(E94&lt;&gt;"",$B94&amp;"|","")</f>
@@ -6916,44 +7248,44 @@
       </c>
       <c r="Q94" s="1" t="str">
         <f aca="false">IF(F94&lt;&gt;"",$B94&amp;"|","")</f>
-        <v>T|</v>
+        <v>sr|</v>
       </c>
       <c r="R94" s="1" t="str">
         <f aca="false">IF(G94&lt;&gt;"",$B94&amp;"|","")</f>
-        <v>T|</v>
+        <v>sr|</v>
       </c>
       <c r="S94" s="1" t="str">
         <f aca="false">IF(H94&lt;&gt;"",$B94&amp;"|","")</f>
-        <v>T|</v>
+        <v>sr|</v>
       </c>
       <c r="T94" s="1" t="str">
+        <f aca="false">IF(I94&lt;&gt;"",$B94&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U94" s="1" t="str">
         <f aca="false">IF(J94&lt;&gt;"",$B94&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U94" s="1" t="str">
+      <c r="V94" s="1" t="str">
         <f aca="false">IF(K94&lt;&gt;"",$B94&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V94" s="1" t="str">
+      <c r="W94" s="1" t="str">
         <f aca="false">IF(L94&lt;&gt;"",$B94&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16" t="str">
@@ -6973,11 +7305,11 @@
       </c>
       <c r="P95" s="1" t="str">
         <f aca="false">IF(E95&lt;&gt;"",$B95&amp;"|","")</f>
-        <v>tex|</v>
+        <v/>
       </c>
       <c r="Q95" s="1" t="str">
         <f aca="false">IF(F95&lt;&gt;"",$B95&amp;"|","")</f>
-        <v>tex|</v>
+        <v/>
       </c>
       <c r="R95" s="1" t="str">
         <f aca="false">IF(G95&lt;&gt;"",$B95&amp;"|","")</f>
@@ -6988,34 +7320,46 @@
         <v/>
       </c>
       <c r="T95" s="1" t="str">
+        <f aca="false">IF(I95&lt;&gt;"",$B95&amp;"|","")</f>
+        <v>St|</v>
+      </c>
+      <c r="U95" s="1" t="str">
         <f aca="false">IF(J95&lt;&gt;"",$B95&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U95" s="1" t="str">
+      <c r="V95" s="1" t="str">
         <f aca="false">IF(K95&lt;&gt;"",$B95&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V95" s="1" t="str">
+      <c r="W95" s="1" t="str">
         <f aca="false">IF(L95&lt;&gt;"",$B95&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="D96" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+      <c r="F96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="I96" s="16" t="str">
         <f aca="false">IF(G96="","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
@@ -7026,7 +7370,7 @@
       </c>
       <c r="O96" s="1" t="str">
         <f aca="false">IF(D96&lt;&gt;"",$B96&amp;"|","")</f>
-        <v/>
+        <v>Sv|</v>
       </c>
       <c r="P96" s="1" t="str">
         <f aca="false">IF(E96&lt;&gt;"",$B96&amp;"|","")</f>
@@ -7034,35 +7378,39 @@
       </c>
       <c r="Q96" s="1" t="str">
         <f aca="false">IF(F96&lt;&gt;"",$B96&amp;"|","")</f>
-        <v/>
+        <v>Sv|</v>
       </c>
       <c r="R96" s="1" t="str">
         <f aca="false">IF(G96&lt;&gt;"",$B96&amp;"|","")</f>
-        <v/>
+        <v>Sv|</v>
       </c>
       <c r="S96" s="1" t="str">
         <f aca="false">IF(H96&lt;&gt;"",$B96&amp;"|","")</f>
-        <v/>
+        <v>Sv|</v>
       </c>
       <c r="T96" s="1" t="str">
+        <f aca="false">IF(I96&lt;&gt;"",$B96&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U96" s="1" t="str">
         <f aca="false">IF(J96&lt;&gt;"",$B96&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U96" s="1" t="str">
+      <c r="V96" s="1" t="str">
         <f aca="false">IF(K96&lt;&gt;"",$B96&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V96" s="1" t="str">
+      <c r="W96" s="1" t="str">
         <f aca="false">IF(L96&lt;&gt;"",$B96&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -7102,38 +7450,42 @@
         <v/>
       </c>
       <c r="T97" s="1" t="str">
+        <f aca="false">IF(I97&lt;&gt;"",$B97&amp;"|","")</f>
+        <v>t|</v>
+      </c>
+      <c r="U97" s="1" t="str">
         <f aca="false">IF(J97&lt;&gt;"",$B97&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U97" s="1" t="str">
+      <c r="V97" s="1" t="str">
         <f aca="false">IF(K97&lt;&gt;"",$B97&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V97" s="1" t="str">
+      <c r="W97" s="1" t="str">
         <f aca="false">IF(L97&lt;&gt;"",$B97&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I98" s="16" t="str">
         <f aca="false">IF(G98="","x","")</f>
@@ -7148,7 +7500,7 @@
       </c>
       <c r="O98" s="1" t="str">
         <f aca="false">IF(D98&lt;&gt;"",$B98&amp;"|","")</f>
-        <v>V|</v>
+        <v>T|</v>
       </c>
       <c r="P98" s="1" t="str">
         <f aca="false">IF(E98&lt;&gt;"",$B98&amp;"|","")</f>
@@ -7156,47 +7508,57 @@
       </c>
       <c r="Q98" s="1" t="str">
         <f aca="false">IF(F98&lt;&gt;"",$B98&amp;"|","")</f>
-        <v>V|</v>
+        <v>T|</v>
       </c>
       <c r="R98" s="1" t="str">
         <f aca="false">IF(G98&lt;&gt;"",$B98&amp;"|","")</f>
-        <v>V|</v>
+        <v>T|</v>
       </c>
       <c r="S98" s="1" t="str">
         <f aca="false">IF(H98&lt;&gt;"",$B98&amp;"|","")</f>
-        <v>V|</v>
+        <v>T|</v>
       </c>
       <c r="T98" s="1" t="str">
+        <f aca="false">IF(I98&lt;&gt;"",$B98&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U98" s="1" t="str">
         <f aca="false">IF(J98&lt;&gt;"",$B98&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U98" s="1" t="str">
+      <c r="V98" s="1" t="str">
         <f aca="false">IF(K98&lt;&gt;"",$B98&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V98" s="1" t="str">
+      <c r="W98" s="1" t="str">
         <f aca="false">IF(L98&lt;&gt;"",$B98&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>21</v>
+      <c r="A99" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="16" t="str">
         <f aca="false">IF(G99="","x","")</f>
         <v>x</v>
       </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="N99" s="1" t="str">
         <f aca="false">IF(C99&lt;&gt;"",$B99&amp;"|","")</f>
         <v/>
@@ -7207,11 +7569,11 @@
       </c>
       <c r="P99" s="1" t="str">
         <f aca="false">IF(E99&lt;&gt;"",$B99&amp;"|","")</f>
-        <v>VA|</v>
+        <v>tex|</v>
       </c>
       <c r="Q99" s="1" t="str">
         <f aca="false">IF(F99&lt;&gt;"",$B99&amp;"|","")</f>
-        <v>VA|</v>
+        <v>tex|</v>
       </c>
       <c r="R99" s="1" t="str">
         <f aca="false">IF(G99&lt;&gt;"",$B99&amp;"|","")</f>
@@ -7222,31 +7584,42 @@
         <v/>
       </c>
       <c r="T99" s="1" t="str">
+        <f aca="false">IF(I99&lt;&gt;"",$B99&amp;"|","")</f>
+        <v>tex|</v>
+      </c>
+      <c r="U99" s="1" t="str">
         <f aca="false">IF(J99&lt;&gt;"",$B99&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U99" s="1" t="str">
+      <c r="V99" s="1" t="str">
         <f aca="false">IF(K99&lt;&gt;"",$B99&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V99" s="1" t="str">
+      <c r="W99" s="1" t="str">
         <f aca="false">IF(L99&lt;&gt;"",$B99&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A100" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
       <c r="I100" s="16" t="str">
         <f aca="false">IF(G100="","x","")</f>
         <v>x</v>
       </c>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
       <c r="N100" s="1" t="str">
         <f aca="false">IF(C100&lt;&gt;"",$B100&amp;"|","")</f>
         <v/>
@@ -7272,42 +7645,38 @@
         <v/>
       </c>
       <c r="T100" s="1" t="str">
+        <f aca="false">IF(I100&lt;&gt;"",$B100&amp;"|","")</f>
+        <v>u|</v>
+      </c>
+      <c r="U100" s="1" t="str">
         <f aca="false">IF(J100&lt;&gt;"",$B100&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U100" s="1" t="str">
+      <c r="V100" s="1" t="str">
         <f aca="false">IF(K100&lt;&gt;"",$B100&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V100" s="1" t="str">
+      <c r="W100" s="1" t="str">
         <f aca="false">IF(L100&lt;&gt;"",$B100&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C101" s="16"/>
-      <c r="D101" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
       <c r="I101" s="16" t="str">
         <f aca="false">IF(G101="","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
@@ -7318,7 +7687,7 @@
       </c>
       <c r="O101" s="1" t="str">
         <f aca="false">IF(D101&lt;&gt;"",$B101&amp;"|","")</f>
-        <v>W|</v>
+        <v/>
       </c>
       <c r="P101" s="1" t="str">
         <f aca="false">IF(E101&lt;&gt;"",$B101&amp;"|","")</f>
@@ -7326,49 +7695,53 @@
       </c>
       <c r="Q101" s="1" t="str">
         <f aca="false">IF(F101&lt;&gt;"",$B101&amp;"|","")</f>
-        <v>W|</v>
+        <v/>
       </c>
       <c r="R101" s="1" t="str">
         <f aca="false">IF(G101&lt;&gt;"",$B101&amp;"|","")</f>
-        <v>W|</v>
+        <v/>
       </c>
       <c r="S101" s="1" t="str">
         <f aca="false">IF(H101&lt;&gt;"",$B101&amp;"|","")</f>
-        <v>W|</v>
+        <v/>
       </c>
       <c r="T101" s="1" t="str">
+        <f aca="false">IF(I101&lt;&gt;"",$B101&amp;"|","")</f>
+        <v>v|</v>
+      </c>
+      <c r="U101" s="1" t="str">
         <f aca="false">IF(J101&lt;&gt;"",$B101&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U101" s="1" t="str">
+      <c r="V101" s="1" t="str">
         <f aca="false">IF(K101&lt;&gt;"",$B101&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V101" s="1" t="str">
+      <c r="W101" s="1" t="str">
         <f aca="false">IF(L101&lt;&gt;"",$B101&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" s="16" t="str">
         <f aca="false">IF(G102="","x","")</f>
@@ -7383,7 +7756,7 @@
       </c>
       <c r="O102" s="1" t="str">
         <f aca="false">IF(D102&lt;&gt;"",$B102&amp;"|","")</f>
-        <v>Wb|</v>
+        <v>V|</v>
       </c>
       <c r="P102" s="1" t="str">
         <f aca="false">IF(E102&lt;&gt;"",$B102&amp;"|","")</f>
@@ -7391,41 +7764,45 @@
       </c>
       <c r="Q102" s="1" t="str">
         <f aca="false">IF(F102&lt;&gt;"",$B102&amp;"|","")</f>
-        <v>Wb|</v>
+        <v>V|</v>
       </c>
       <c r="R102" s="1" t="str">
         <f aca="false">IF(G102&lt;&gt;"",$B102&amp;"|","")</f>
-        <v>Wb|</v>
+        <v>V|</v>
       </c>
       <c r="S102" s="1" t="str">
         <f aca="false">IF(H102&lt;&gt;"",$B102&amp;"|","")</f>
-        <v>Wb|</v>
+        <v>V|</v>
       </c>
       <c r="T102" s="1" t="str">
+        <f aca="false">IF(I102&lt;&gt;"",$B102&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U102" s="1" t="str">
         <f aca="false">IF(J102&lt;&gt;"",$B102&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U102" s="1" t="str">
+      <c r="V102" s="1" t="str">
         <f aca="false">IF(K102&lt;&gt;"",$B102&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V102" s="1" t="str">
+      <c r="W102" s="1" t="str">
         <f aca="false">IF(L102&lt;&gt;"",$B102&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" s="16"/>
       <c r="I103" s="16" t="str">
@@ -7442,11 +7819,11 @@
       </c>
       <c r="P103" s="1" t="str">
         <f aca="false">IF(E103&lt;&gt;"",$B103&amp;"|","")</f>
-        <v>Wh|</v>
+        <v>VA|</v>
       </c>
       <c r="Q103" s="1" t="str">
         <f aca="false">IF(F103&lt;&gt;"",$B103&amp;"|","")</f>
-        <v>Wh|</v>
+        <v>VA|</v>
       </c>
       <c r="R103" s="1" t="str">
         <f aca="false">IF(G103&lt;&gt;"",$B103&amp;"|","")</f>
@@ -7457,38 +7834,35 @@
         <v/>
       </c>
       <c r="T103" s="1" t="str">
+        <f aca="false">IF(I103&lt;&gt;"",$B103&amp;"|","")</f>
+        <v>VA|</v>
+      </c>
+      <c r="U103" s="1" t="str">
         <f aca="false">IF(J103&lt;&gt;"",$B103&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U103" s="1" t="str">
+      <c r="V103" s="1" t="str">
         <f aca="false">IF(K103&lt;&gt;"",$B103&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V103" s="1" t="str">
+      <c r="W103" s="1" t="str">
         <f aca="false">IF(L103&lt;&gt;"",$B103&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
       <c r="I104" s="16" t="str">
         <f aca="false">IF(G104="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
       <c r="N104" s="1" t="str">
         <f aca="false">IF(C104&lt;&gt;"",$B104&amp;"|","")</f>
         <v/>
@@ -7514,34 +7888,46 @@
         <v/>
       </c>
       <c r="T104" s="1" t="str">
+        <f aca="false">IF(I104&lt;&gt;"",$B104&amp;"|","")</f>
+        <v>Var|</v>
+      </c>
+      <c r="U104" s="1" t="str">
         <f aca="false">IF(J104&lt;&gt;"",$B104&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U104" s="1" t="str">
+      <c r="V104" s="1" t="str">
         <f aca="false">IF(K104&lt;&gt;"",$B104&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V104" s="1" t="str">
+      <c r="W104" s="1" t="str">
         <f aca="false">IF(L104&lt;&gt;"",$B104&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="D105" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
+      <c r="F105" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="I105" s="16" t="str">
         <f aca="false">IF(G105="","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
@@ -7552,7 +7938,7 @@
       </c>
       <c r="O105" s="1" t="str">
         <f aca="false">IF(D105&lt;&gt;"",$B105&amp;"|","")</f>
-        <v/>
+        <v>W|</v>
       </c>
       <c r="P105" s="1" t="str">
         <f aca="false">IF(E105&lt;&gt;"",$B105&amp;"|","")</f>
@@ -7560,45 +7946,57 @@
       </c>
       <c r="Q105" s="1" t="str">
         <f aca="false">IF(F105&lt;&gt;"",$B105&amp;"|","")</f>
-        <v/>
+        <v>W|</v>
       </c>
       <c r="R105" s="1" t="str">
         <f aca="false">IF(G105&lt;&gt;"",$B105&amp;"|","")</f>
-        <v/>
+        <v>W|</v>
       </c>
       <c r="S105" s="1" t="str">
         <f aca="false">IF(H105&lt;&gt;"",$B105&amp;"|","")</f>
-        <v/>
+        <v>W|</v>
       </c>
       <c r="T105" s="1" t="str">
+        <f aca="false">IF(I105&lt;&gt;"",$B105&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U105" s="1" t="str">
         <f aca="false">IF(J105&lt;&gt;"",$B105&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U105" s="1" t="str">
+      <c r="V105" s="1" t="str">
         <f aca="false">IF(K105&lt;&gt;"",$B105&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V105" s="1" t="str">
+      <c r="W105" s="1" t="str">
         <f aca="false">IF(L105&lt;&gt;"",$B105&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="D106" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
+      <c r="F106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="I106" s="16" t="str">
         <f aca="false">IF(G106="","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
@@ -7609,7 +8007,7 @@
       </c>
       <c r="O106" s="1" t="str">
         <f aca="false">IF(D106&lt;&gt;"",$B106&amp;"|","")</f>
-        <v/>
+        <v>Wb|</v>
       </c>
       <c r="P106" s="1" t="str">
         <f aca="false">IF(E106&lt;&gt;"",$B106&amp;"|","")</f>
@@ -7617,49 +8015,51 @@
       </c>
       <c r="Q106" s="1" t="str">
         <f aca="false">IF(F106&lt;&gt;"",$B106&amp;"|","")</f>
-        <v/>
+        <v>Wb|</v>
       </c>
       <c r="R106" s="1" t="str">
         <f aca="false">IF(G106&lt;&gt;"",$B106&amp;"|","")</f>
-        <v/>
+        <v>Wb|</v>
       </c>
       <c r="S106" s="1" t="str">
         <f aca="false">IF(H106&lt;&gt;"",$B106&amp;"|","")</f>
-        <v/>
+        <v>Wb|</v>
       </c>
       <c r="T106" s="1" t="str">
+        <f aca="false">IF(I106&lt;&gt;"",$B106&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U106" s="1" t="str">
         <f aca="false">IF(J106&lt;&gt;"",$B106&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U106" s="1" t="str">
+      <c r="V106" s="1" t="str">
         <f aca="false">IF(K106&lt;&gt;"",$B106&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V106" s="1" t="str">
+      <c r="W106" s="1" t="str">
         <f aca="false">IF(L106&lt;&gt;"",$B106&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
+      <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
       <c r="I107" s="16" t="str">
         <f aca="false">IF(G107="","x","")</f>
         <v>x</v>
       </c>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
       <c r="N107" s="1" t="str">
         <f aca="false">IF(C107&lt;&gt;"",$B107&amp;"|","")</f>
         <v/>
@@ -7670,11 +8070,11 @@
       </c>
       <c r="P107" s="1" t="str">
         <f aca="false">IF(E107&lt;&gt;"",$B107&amp;"|","")</f>
-        <v/>
+        <v>Wh|</v>
       </c>
       <c r="Q107" s="1" t="str">
         <f aca="false">IF(F107&lt;&gt;"",$B107&amp;"|","")</f>
-        <v/>
+        <v>Wh|</v>
       </c>
       <c r="R107" s="1" t="str">
         <f aca="false">IF(G107&lt;&gt;"",$B107&amp;"|","")</f>
@@ -7685,42 +8085,38 @@
         <v/>
       </c>
       <c r="T107" s="1" t="str">
+        <f aca="false">IF(I107&lt;&gt;"",$B107&amp;"|","")</f>
+        <v>Wh|</v>
+      </c>
+      <c r="U107" s="1" t="str">
         <f aca="false">IF(J107&lt;&gt;"",$B107&amp;"|","")</f>
         <v/>
       </c>
-      <c r="U107" s="1" t="str">
+      <c r="V107" s="1" t="str">
         <f aca="false">IF(K107&lt;&gt;"",$B107&amp;"|","")</f>
         <v/>
       </c>
-      <c r="V107" s="1" t="str">
+      <c r="W107" s="1" t="str">
         <f aca="false">IF(L107&lt;&gt;"",$B107&amp;"|","")</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C108" s="16"/>
-      <c r="D108" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D108" s="16"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
       <c r="I108" s="16" t="str">
         <f aca="false">IF(G108="","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
@@ -7731,7 +8127,7 @@
       </c>
       <c r="O108" s="1" t="str">
         <f aca="false">IF(D108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v>Ω|</v>
+        <v/>
       </c>
       <c r="P108" s="1" t="str">
         <f aca="false">IF(E108&lt;&gt;"",$B108&amp;"|","")</f>
@@ -7739,128 +8135,301 @@
       </c>
       <c r="Q108" s="1" t="str">
         <f aca="false">IF(F108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v>Ω|</v>
+        <v/>
       </c>
       <c r="R108" s="1" t="str">
         <f aca="false">IF(G108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v>Ω|</v>
+        <v/>
       </c>
       <c r="S108" s="1" t="str">
         <f aca="false">IF(H108&lt;&gt;"",$B108&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="T108" s="1" t="str">
+        <f aca="false">IF(I108&lt;&gt;"",$B108&amp;"|","")</f>
+        <v>yd|</v>
+      </c>
+      <c r="U108" s="1" t="str">
+        <f aca="false">IF(J108&lt;&gt;"",$B108&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="V108" s="1" t="str">
+        <f aca="false">IF(K108&lt;&gt;"",$B108&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="W108" s="1" t="str">
+        <f aca="false">IF(L108&lt;&gt;"",$B108&amp;"|","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16" t="str">
+        <f aca="false">IF(G109="","x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="N109" s="1" t="str">
+        <f aca="false">IF(C109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="O109" s="1" t="str">
+        <f aca="false">IF(D109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="P109" s="1" t="str">
+        <f aca="false">IF(E109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="Q109" s="1" t="str">
+        <f aca="false">IF(F109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="R109" s="1" t="str">
+        <f aca="false">IF(G109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="S109" s="1" t="str">
+        <f aca="false">IF(H109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="T109" s="1" t="str">
+        <f aca="false">IF(I109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v>Z|</v>
+      </c>
+      <c r="U109" s="1" t="str">
+        <f aca="false">IF(J109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="V109" s="1" t="str">
+        <f aca="false">IF(K109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="W109" s="1" t="str">
+        <f aca="false">IF(L109&lt;&gt;"",$B109&amp;"|","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16" t="str">
+        <f aca="false">IF(G110="","x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="N110" s="1" t="str">
+        <f aca="false">IF(C110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="O110" s="1" t="str">
+        <f aca="false">IF(D110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="P110" s="1" t="str">
+        <f aca="false">IF(E110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="Q110" s="1" t="str">
+        <f aca="false">IF(F110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="R110" s="1" t="str">
+        <f aca="false">IF(G110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="S110" s="1" t="str">
+        <f aca="false">IF(H110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="T110" s="1" t="str">
+        <f aca="false">IF(I110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v>ρ|</v>
+      </c>
+      <c r="U110" s="1" t="str">
+        <f aca="false">IF(J110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="V110" s="1" t="str">
+        <f aca="false">IF(K110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="W110" s="1" t="str">
+        <f aca="false">IF(L110&lt;&gt;"",$B110&amp;"|","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16" t="str">
+        <f aca="false">IF(G111="","x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="N111" s="1" t="str">
+        <f aca="false">IF(C111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="O111" s="1" t="str">
+        <f aca="false">IF(D111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="P111" s="1" t="str">
+        <f aca="false">IF(E111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="Q111" s="1" t="str">
+        <f aca="false">IF(F111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="R111" s="1" t="str">
+        <f aca="false">IF(G111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="S111" s="1" t="str">
+        <f aca="false">IF(H111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="T111" s="1" t="str">
+        <f aca="false">IF(I111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v>ω|</v>
+      </c>
+      <c r="U111" s="1" t="str">
+        <f aca="false">IF(J111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="V111" s="1" t="str">
+        <f aca="false">IF(K111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="W111" s="1" t="str">
+        <f aca="false">IF(L111&lt;&gt;"",$B111&amp;"|","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="16" t="str">
+        <f aca="false">IF(G112="","x","")</f>
+        <v/>
+      </c>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="N112" s="1" t="str">
+        <f aca="false">IF(C112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="O112" s="1" t="str">
+        <f aca="false">IF(D112&lt;&gt;"",$B112&amp;"|","")</f>
         <v>Ω|</v>
       </c>
-      <c r="T108" s="1" t="str">
-        <f aca="false">IF(J108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="U108" s="1" t="str">
-        <f aca="false">IF(K108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v/>
-      </c>
-      <c r="V108" s="1" t="str">
-        <f aca="false">IF(L108&lt;&gt;"",$B108&amp;"|","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q119" s="18"/>
-      <c r="S119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S124" s="1"/>
-    </row>
+      <c r="P112" s="1" t="str">
+        <f aca="false">IF(E112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="Q112" s="1" t="str">
+        <f aca="false">IF(F112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v>Ω|</v>
+      </c>
+      <c r="R112" s="1" t="str">
+        <f aca="false">IF(G112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v>Ω|</v>
+      </c>
+      <c r="S112" s="1" t="str">
+        <f aca="false">IF(H112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v>Ω|</v>
+      </c>
+      <c r="T112" s="1" t="str">
+        <f aca="false">IF(I112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="U112" s="1" t="str">
+        <f aca="false">IF(J112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="V112" s="1" t="str">
+        <f aca="false">IF(K112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+      <c r="W112" s="1" t="str">
+        <f aca="false">IF(L112&lt;&gt;"",$B112&amp;"|","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/seanox_ai_nlp/units/units.xlsx
+++ b/seanox_ai_nlp/units/units.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
@@ -49,16 +49,13 @@
     <t xml:space="preserve">Common Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Informal Phrase</t>
+    <t xml:space="preserve">Common Phrase</t>
   </si>
   <si>
     <t xml:space="preserve">Informal Prefix</t>
   </si>
   <si>
     <t xml:space="preserve">Informal Exponents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informal</t>
   </si>
   <si>
     <t xml:space="preserve">(Arc) Minute</t>
@@ -1188,11 +1185,11 @@
   <dimension ref="A1:XFD128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1217,7 +1214,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="24" style="1" width="10.91"/>
@@ -1250,7 +1247,7 @@
       </c>
       <c r="T1" s="9" t="str">
         <f aca="false">IF(LEN(_xlfn.CONCAT(T3:T112)) &gt; 0,LEFT(_xlfn.CONCAT(T3:T112),LEN(_xlfn.CONCAT(T3:T112)) -1),"")</f>
-        <v>′|″|″|a|a|a|Ah|atm|Atü|bar|bbl|d|dam|dB|db(A)|db(C)|db(G)|db(Z)|dpt|dz|Dz|ft|gal|ha|hl|hp|in|kn|kt|kt|l|L|lb|lj|ls|mel|mi|min|Np|º|oz|oz.|p|pc|PS|rad|rm|sone|sq.ft.|sq.in.|sq.mile|sq.yd.|sq. ft.|sq. in.|sq. mile|sq. yd.|sq ft|sq in|sq mile|sq yd|St|t|tex|u|v|VA|Var|Wh|yd|Z|ρ|ω</v>
+        <v>′|″|″|a|a|a|Ah|atm|Atü|bar|bbl|d|dam|dB|db(A)|db(C)|db(G)|db(Z)|dpt|dz|Dz|ft|gal|ha|hl|hp|in|kn|kt|kt|l|L|lb|lj|ls|mel|mi|min|Np|º|oz|oz.|p|pc|PS|rad|rm|sone|St|t|tex|u|v|VA|Var|Wh|yd|Z|ρ|ω</v>
       </c>
       <c r="U1" s="10" t="str">
         <f aca="false">IF(LEN(_xlfn.CONCAT(U3:U112)) &gt; 0,LEFT(_xlfn.CONCAT(U3:U112),LEN(_xlfn.CONCAT(U3:U112)) -1),"")</f>
@@ -1324,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>10</v>
@@ -1332,8 +1329,8 @@
       <c r="W2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="XEY2" s="0"/>
-      <c r="XEZ2" s="0"/>
+      <c r="XEY2" s="15"/>
+      <c r="XEZ2" s="15"/>
       <c r="XFA2" s="15"/>
       <c r="XFB2" s="15"/>
       <c r="XFC2" s="15"/>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1402,10 +1399,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1463,10 +1460,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1524,10 +1521,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1585,24 +1582,24 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="16" t="str">
         <f aca="false">IF(G7="","x","")</f>
@@ -1654,18 +1651,18 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1675,10 +1672,10 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="str">
         <f aca="false">IF(C8&lt;&gt;"",$B8&amp;"|","")</f>
@@ -1723,10 +1720,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1784,21 +1781,21 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="str">
@@ -1851,16 +1848,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="16"/>
       <c r="I11" s="16" t="str">
@@ -1910,10 +1907,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1971,10 +1968,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -2032,21 +2029,21 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="str">
@@ -2099,21 +2096,21 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="str">
@@ -2166,21 +2163,21 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="str">
@@ -2233,18 +2230,18 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2298,10 +2295,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -2359,24 +2356,24 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="16" t="str">
         <f aca="false">IF(G19="","x","")</f>
@@ -2428,24 +2425,24 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="16" t="str">
         <f aca="false">IF(G20="","x","")</f>
@@ -2497,24 +2494,24 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="16" t="str">
         <f aca="false">IF(G21="","x","")</f>
@@ -2566,21 +2563,21 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="str">
@@ -2633,18 +2630,18 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2698,19 +2695,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="16" t="str">
         <f aca="false">IF(G24="","x","")</f>
@@ -2759,10 +2756,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -2820,18 +2817,18 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -2885,16 +2882,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="16"/>
       <c r="I27" s="16" t="str">
@@ -2944,16 +2941,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="16"/>
       <c r="I28" s="16" t="str">
@@ -3003,16 +3000,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="16"/>
       <c r="I29" s="16" t="str">
@@ -3062,16 +3059,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="16"/>
       <c r="I30" s="16" t="str">
@@ -3121,18 +3118,18 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -3186,10 +3183,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -3247,10 +3244,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -3308,19 +3305,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="16" t="str">
         <f aca="false">IF(G34="","x","")</f>
@@ -3369,24 +3366,24 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="16" t="str">
         <f aca="false">IF(G35="","x","")</f>
@@ -3438,10 +3435,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -3499,21 +3496,21 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="str">
@@ -3566,10 +3563,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -3627,24 +3624,24 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="16" t="str">
         <f aca="false">IF(G39="","x","")</f>
@@ -3696,24 +3693,24 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="16" t="str">
         <f aca="false">IF(G40="","x","")</f>
@@ -3765,21 +3762,21 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16" t="str">
@@ -3832,18 +3829,18 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -3853,10 +3850,10 @@
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" s="1" t="str">
         <f aca="false">IF(C42&lt;&gt;"",$B42&amp;"|","")</f>
@@ -3901,10 +3898,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -3962,10 +3959,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -4023,24 +4020,24 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="16" t="str">
         <f aca="false">IF(G45="","x","")</f>
@@ -4092,10 +4089,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -4153,24 +4150,24 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="16" t="str">
         <f aca="false">IF(G47="","x","")</f>
@@ -4222,24 +4219,24 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="16" t="str">
         <f aca="false">IF(G48="","x","")</f>
@@ -4291,24 +4288,24 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="16" t="str">
         <f aca="false">IF(G49="","x","")</f>
@@ -4360,18 +4357,18 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -4425,10 +4422,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4486,18 +4483,18 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -4551,18 +4548,18 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -4616,18 +4613,18 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -4681,10 +4678,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -4742,10 +4739,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -4803,24 +4800,24 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" s="16" t="str">
         <f aca="false">IF(G57="","x","")</f>
@@ -4872,10 +4869,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -4933,24 +4930,24 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" s="16" t="str">
         <f aca="false">IF(G59="","x","")</f>
@@ -5002,24 +4999,24 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" s="16" t="str">
         <f aca="false">IF(G60="","x","")</f>
@@ -5027,10 +5024,10 @@
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N60" s="1" t="str">
         <f aca="false">IF(C60&lt;&gt;"",$B60&amp;"|","")</f>
@@ -5075,18 +5072,18 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -5140,10 +5137,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -5157,10 +5154,10 @@
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N62" s="1" t="str">
         <f aca="false">IF(C62&lt;&gt;"",$B62&amp;"|","")</f>
@@ -5205,18 +5202,18 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -5270,24 +5267,24 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="16" t="str">
         <f aca="false">IF(G64="","x","")</f>
@@ -5339,21 +5336,21 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16" t="str">
@@ -5406,18 +5403,18 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -5471,10 +5468,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5532,21 +5529,21 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="16" t="str">
@@ -5599,10 +5596,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -5660,10 +5657,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -5721,21 +5718,21 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16" t="str">
@@ -5788,10 +5785,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -5849,24 +5846,24 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I73" s="16" t="str">
         <f aca="false">IF(G73="","x","")</f>
@@ -5918,10 +5915,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -5979,18 +5976,18 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -6044,21 +6041,21 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16" t="str">
@@ -6111,18 +6108,18 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -6176,10 +6173,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -6237,24 +6234,24 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>159</v>
-      </c>
       <c r="C79" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" s="16" t="str">
         <f aca="false">IF(G79="","x","")</f>
@@ -6306,24 +6303,24 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" s="16" t="str">
         <f aca="false">IF(G80="","x","")</f>
@@ -6375,18 +6372,18 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
@@ -6440,10 +6437,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -6451,10 +6448,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
-      <c r="I82" s="16" t="str">
-        <f aca="false">IF(G82="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I82" s="16"/>
       <c r="J82" s="16" t="str">
         <f aca="false">IF(H82="","x","")</f>
         <v>x</v>
@@ -6487,7 +6481,7 @@
       </c>
       <c r="T82" s="1" t="str">
         <f aca="false">IF(I82&lt;&gt;"",$B82&amp;"|","")</f>
-        <v>sq.ft.|</v>
+        <v/>
       </c>
       <c r="U82" s="1" t="str">
         <f aca="false">IF(J82&lt;&gt;"",$B82&amp;"|","")</f>
@@ -6504,10 +6498,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -6515,10 +6509,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="16" t="str">
-        <f aca="false">IF(G83="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I83" s="16"/>
       <c r="J83" s="16" t="str">
         <f aca="false">IF(H83="","x","")</f>
         <v>x</v>
@@ -6551,7 +6542,7 @@
       </c>
       <c r="T83" s="1" t="str">
         <f aca="false">IF(I83&lt;&gt;"",$B83&amp;"|","")</f>
-        <v>sq.in.|</v>
+        <v/>
       </c>
       <c r="U83" s="1" t="str">
         <f aca="false">IF(J83&lt;&gt;"",$B83&amp;"|","")</f>
@@ -6568,10 +6559,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -6579,10 +6570,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="16" t="str">
-        <f aca="false">IF(G84="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I84" s="16"/>
       <c r="J84" s="16" t="str">
         <f aca="false">IF(H84="","x","")</f>
         <v>x</v>
@@ -6615,7 +6603,7 @@
       </c>
       <c r="T84" s="1" t="str">
         <f aca="false">IF(I84&lt;&gt;"",$B84&amp;"|","")</f>
-        <v>sq.mile|</v>
+        <v/>
       </c>
       <c r="U84" s="1" t="str">
         <f aca="false">IF(J84&lt;&gt;"",$B84&amp;"|","")</f>
@@ -6632,10 +6620,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -6643,10 +6631,7 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="16" t="str">
-        <f aca="false">IF(G85="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I85" s="16"/>
       <c r="J85" s="16" t="str">
         <f aca="false">IF(H85="","x","")</f>
         <v>x</v>
@@ -6679,7 +6664,7 @@
       </c>
       <c r="T85" s="1" t="str">
         <f aca="false">IF(I85&lt;&gt;"",$B85&amp;"|","")</f>
-        <v>sq.yd.|</v>
+        <v/>
       </c>
       <c r="U85" s="1" t="str">
         <f aca="false">IF(J85&lt;&gt;"",$B85&amp;"|","")</f>
@@ -6696,10 +6681,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -6707,10 +6692,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
-      <c r="I86" s="16" t="str">
-        <f aca="false">IF(G86="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I86" s="16"/>
       <c r="J86" s="16" t="str">
         <f aca="false">IF(H86="","x","")</f>
         <v>x</v>
@@ -6743,7 +6725,7 @@
       </c>
       <c r="T86" s="1" t="str">
         <f aca="false">IF(I86&lt;&gt;"",$B86&amp;"|","")</f>
-        <v>sq. ft.|</v>
+        <v/>
       </c>
       <c r="U86" s="1" t="str">
         <f aca="false">IF(J86&lt;&gt;"",$B86&amp;"|","")</f>
@@ -6760,10 +6742,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -6771,10 +6753,7 @@
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="16" t="str">
-        <f aca="false">IF(G87="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I87" s="16"/>
       <c r="J87" s="16" t="str">
         <f aca="false">IF(H87="","x","")</f>
         <v>x</v>
@@ -6807,7 +6786,7 @@
       </c>
       <c r="T87" s="1" t="str">
         <f aca="false">IF(I87&lt;&gt;"",$B87&amp;"|","")</f>
-        <v>sq. in.|</v>
+        <v/>
       </c>
       <c r="U87" s="1" t="str">
         <f aca="false">IF(J87&lt;&gt;"",$B87&amp;"|","")</f>
@@ -6824,10 +6803,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -6835,10 +6814,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
-      <c r="I88" s="16" t="str">
-        <f aca="false">IF(G88="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I88" s="16"/>
       <c r="J88" s="16" t="str">
         <f aca="false">IF(H88="","x","")</f>
         <v>x</v>
@@ -6871,7 +6847,7 @@
       </c>
       <c r="T88" s="1" t="str">
         <f aca="false">IF(I88&lt;&gt;"",$B88&amp;"|","")</f>
-        <v>sq. mile|</v>
+        <v/>
       </c>
       <c r="U88" s="1" t="str">
         <f aca="false">IF(J88&lt;&gt;"",$B88&amp;"|","")</f>
@@ -6888,10 +6864,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -6899,10 +6875,7 @@
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="16" t="str">
-        <f aca="false">IF(G89="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I89" s="16"/>
       <c r="J89" s="16" t="str">
         <f aca="false">IF(H89="","x","")</f>
         <v>x</v>
@@ -6935,7 +6908,7 @@
       </c>
       <c r="T89" s="1" t="str">
         <f aca="false">IF(I89&lt;&gt;"",$B89&amp;"|","")</f>
-        <v>sq. yd.|</v>
+        <v/>
       </c>
       <c r="U89" s="1" t="str">
         <f aca="false">IF(J89&lt;&gt;"",$B89&amp;"|","")</f>
@@ -6952,10 +6925,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -6963,10 +6936,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="16" t="str">
-        <f aca="false">IF(G90="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I90" s="16"/>
       <c r="J90" s="16" t="str">
         <f aca="false">IF(H90="","x","")</f>
         <v>x</v>
@@ -6999,7 +6969,7 @@
       </c>
       <c r="T90" s="1" t="str">
         <f aca="false">IF(I90&lt;&gt;"",$B90&amp;"|","")</f>
-        <v>sq ft|</v>
+        <v/>
       </c>
       <c r="U90" s="1" t="str">
         <f aca="false">IF(J90&lt;&gt;"",$B90&amp;"|","")</f>
@@ -7016,10 +6986,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -7027,10 +6997,7 @@
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="16" t="str">
-        <f aca="false">IF(G91="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I91" s="16"/>
       <c r="J91" s="16" t="str">
         <f aca="false">IF(H91="","x","")</f>
         <v>x</v>
@@ -7063,7 +7030,7 @@
       </c>
       <c r="T91" s="1" t="str">
         <f aca="false">IF(I91&lt;&gt;"",$B91&amp;"|","")</f>
-        <v>sq in|</v>
+        <v/>
       </c>
       <c r="U91" s="1" t="str">
         <f aca="false">IF(J91&lt;&gt;"",$B91&amp;"|","")</f>
@@ -7080,10 +7047,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -7091,10 +7058,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
-      <c r="I92" s="16" t="str">
-        <f aca="false">IF(G92="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I92" s="16"/>
       <c r="J92" s="16" t="str">
         <f aca="false">IF(H92="","x","")</f>
         <v>x</v>
@@ -7127,7 +7091,7 @@
       </c>
       <c r="T92" s="1" t="str">
         <f aca="false">IF(I92&lt;&gt;"",$B92&amp;"|","")</f>
-        <v>sq mile|</v>
+        <v/>
       </c>
       <c r="U92" s="1" t="str">
         <f aca="false">IF(J92&lt;&gt;"",$B92&amp;"|","")</f>
@@ -7144,10 +7108,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -7155,10 +7119,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="16" t="str">
-        <f aca="false">IF(G93="","x","")</f>
-        <v>x</v>
-      </c>
+      <c r="I93" s="16"/>
       <c r="J93" s="16" t="str">
         <f aca="false">IF(H93="","x","")</f>
         <v>x</v>
@@ -7191,7 +7152,7 @@
       </c>
       <c r="T93" s="1" t="str">
         <f aca="false">IF(I93&lt;&gt;"",$B93&amp;"|","")</f>
-        <v>sq yd|</v>
+        <v/>
       </c>
       <c r="U93" s="1" t="str">
         <f aca="false">IF(J93&lt;&gt;"",$B93&amp;"|","")</f>
@@ -7208,24 +7169,24 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" s="16" t="str">
         <f aca="false">IF(G94="","x","")</f>
@@ -7277,10 +7238,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -7338,24 +7299,24 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I96" s="16" t="str">
         <f aca="false">IF(G96="","x","")</f>
@@ -7407,10 +7368,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -7468,24 +7429,24 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I98" s="16" t="str">
         <f aca="false">IF(G98="","x","")</f>
@@ -7537,18 +7498,18 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -7602,10 +7563,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -7663,10 +7624,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -7724,24 +7685,24 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102" s="16" t="str">
         <f aca="false">IF(G102="","x","")</f>
@@ -7793,16 +7754,16 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" s="16"/>
       <c r="I103" s="16" t="str">
@@ -7852,10 +7813,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
@@ -7906,24 +7867,24 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" s="16" t="str">
         <f aca="false">IF(G105="","x","")</f>
@@ -7975,24 +7936,24 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I106" s="16" t="str">
         <f aca="false">IF(G106="","x","")</f>
@@ -8044,16 +8005,16 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" s="16"/>
       <c r="I107" s="16" t="str">
@@ -8103,10 +8064,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -8164,10 +8125,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -8225,10 +8186,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -8286,10 +8247,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -8347,24 +8308,24 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I112" s="16" t="str">
         <f aca="false">IF(G112="","x","")</f>
